--- a/relatorio_iteracoes_NR_integrado.xlsx
+++ b/relatorio_iteracoes_NR_integrado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,56 +486,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1.06       1.045      1.01       1.01905154 1.02       1.07
- 1.06807427 1.09       1.06       1.05437706 1.05866621 1.05572115
- 1.05104877 1.03816364]</t>
+          <t>[1.06       1.045      1.01       1.01026574 1.01926825 1.08862036
+ 1.         0.94118705 1.01937454 1.02399148 1.05224888 1.07
+ 1.06133888 1.01958064]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[ 5.26062656e-11 -4.97815837e+00 -1.27125002e+01 -1.03297887e+01
- -8.76854896e+00 -1.41747293e+01 -1.33848432e+01 -1.33848432e+01
- -1.49332123e+01 -1.50855745e+01 -1.47642271e+01 -1.50298178e+01
- -1.51152960e+01 -1.60085051e+01]</t>
+          <t>[-1.18635576e-08 -4.75870751e+00 -1.24144049e+01 -9.88428542e+00
+ -8.54834171e+00 -1.44970023e+01 -1.28640338e+01 -1.28640338e+01
+ -1.44447841e+01 -1.47254453e+01 -1.47115814e+01 -1.53268751e+01
+ -1.53045194e+01 -1.58509684e+01]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  1.28971162e-02  7.26078414e-02 -1.98855355e-01
-  1.47197285e-01 -4.22139735e-02 -7.60260955e-02  4.57966998e-16
-  9.91793889e-02 -5.54111760e-02  5.84412227e-02 -4.84081965e-02
-  3.60310777e-02  6.74814478e-04]</t>
+          <t>[ 0.          0.08539079 -0.91391208 -0.35542255 -0.00551323 -0.17949652
+  0.          0.         -0.27513857 -0.05415878 -0.05536161 -0.08496931
+ -0.13351373 -0.09922922]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -1.85101436e-01
- -7.06052405e-02  0.00000000e+00  1.23433964e+00  0.00000000e+00
- -6.73794658e-01  3.07542660e-02 -3.29906178e-02 -9.28272015e-02
-  3.66031920e-02  5.24961982e-04]</t>
+          <t>[ 0.          0.          0.          0.26943711  0.23457665  0.
+  0.801677    0.         -0.04973998  0.01960314 -0.07479962 -0.03768652
+ -0.08383626  0.05133521]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0. 0.]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         1.         1.         1.
- 1.         0.978      0.97270338 0.92907038 1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.        ]</t>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.932 1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.163   0.4448  0.2567  0.      0.      0.1168  0.      0.1668  0.
+          <t>[-0.163   0.4448  0.2567  0.      0.      0.24    0.     -0.06    0.
   0.      0.      0.      0.      0.    ]</t>
         </is>
       </c>
@@ -546,56 +542,54 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1.06       1.045      1.01       1.01733433 1.02       1.07
- 1.06333653 1.09       1.06       1.05434841 1.058617   1.0555037
- 1.05097239 1.03812546]</t>
+          <t>[1.06       1.045      1.01       1.01196066 1.01636302 1.07462083
+ 1.03343304 1.02760361 1.03758138 1.03659513 1.05182285 1.05813417
+ 1.05170235 1.02558057]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[ 4.26056133e-11 -4.98125425e+00 -1.27241736e+01 -1.03040674e+01
- -8.77842758e+00 -1.41543047e+01 -1.33807813e+01 -1.33807813e+01
- -1.49684400e+01 -1.51110662e+01 -1.47671569e+01 -1.50126208e+01
- -1.51038742e+01 -1.60236171e+01]</t>
+          <t>[-1.23551845e-08 -4.98500474e+00 -1.27483990e+01 -1.02133781e+01
+ -8.74699354e+00 -1.43956196e+01 -1.32298508e+01 -1.32298508e+01
+ -1.48120321e+01 -1.50158740e+01 -1.48201407e+01 -1.52392716e+01
+ -1.52770909e+01 -1.60284875e+01]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00 -9.93288805e-05 -2.64149512e-04  1.08204794e-03
- -3.21587445e-03  2.60189702e-03  5.54820366e-03 -5.16947596e-16
- -6.53783624e-03 -3.74937499e-05 -8.29491221e-05 -6.57184327e-04
- -5.84387673e-05 -3.95950437e-06]</t>
+          <t>[ 0.00000000e+00 -4.58679012e-02 -1.33159950e-02 -4.62916780e-03
+ -3.16169918e-02  6.13481048e-03  1.16521285e-03  2.35922393e-16
+  4.64090693e-04  7.50564073e-05  2.96600199e-04  7.28295143e-04
+  1.29070126e-03 -2.44021635e-04]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -8.15448687e-04
-  6.22868570e-04  0.00000000e+00 -9.00693737e-02  0.00000000e+00
-  2.89778141e-05 -1.25484626e-04 -2.01705742e-04 -1.23904396e-03
-  4.28159551e-05 -7.17707675e-06]</t>
+          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -4.83931094e-02
+ -9.48753658e-02 -1.63032878e-01 -1.02049773e-02  2.54243480e-01
+ -1.05153254e-02 -1.75959455e-04 -1.58291989e-04 -8.28044290e-04
+ -1.63109342e-03 -1.19087377e-03]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0. 0.]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         1.         1.         1.
- 1.         0.978      0.94844738 0.9364067  1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.        ]</t>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.932 1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.163   0.4448  0.2567  0.      0.      0.1168  0.      0.1668  0.
+          <t>[-0.163   0.4448  0.2567  0.      0.      0.24    0.     -0.06    0.
   0.      0.      0.      0.      0.    ]</t>
         </is>
       </c>
@@ -606,56 +600,54 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1.06       1.045      1.01       1.01732361 1.02       1.07
- 1.06332535 1.09       1.06       1.0543632  1.05864062 1.05549284
- 1.05098661 1.03813584]</t>
+          <t>[1.06       1.045      1.01       1.01037271 1.01501003 1.07153033
+ 1.0281012  1.01776026 1.03309086 1.03231555 1.04810715 1.05489219
+ 1.04834399 1.0215043 ]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[ 4.23181983e-11 -4.98224664e+00 -1.27276543e+01 -1.03095662e+01
- -8.77537765e+00 -1.41863800e+01 -1.33564436e+01 -1.33564436e+01
- -1.49288173e+01 -1.50839433e+01 -1.47690595e+01 -1.50397150e+01
- -1.51257712e+01 -1.60106171e+01]</t>
+          <t>[-1.23689637e-08 -4.99270645e+00 -1.27681255e+01 -1.02046181e+01
+ -8.74142801e+00 -1.44308234e+01 -1.32375280e+01 -1.32375280e+01
+ -1.48324613e+01 -1.50425343e+01 -1.48535002e+01 -1.52799174e+01
+ -1.53167400e+01 -1.60678796e+01]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00 -4.92675890e-06 -6.14081586e-06 -8.23944621e-03
-  7.12902153e-03 -7.15400951e-03  2.11765766e-05 -3.19189120e-16
-  8.21840611e-03 -3.19168311e-07 -2.99754984e-07 -1.36418731e-07
- -2.00600378e-07 -3.22356931e-07]</t>
+          <t>[ 0.00000000e+00 -8.17240791e-05 -2.57006642e-06 -2.88643211e-04
+ -5.12495086e-04  2.03360081e-04 -3.91019958e-05 -1.05818132e-16
+  1.41059422e-04 -2.96721192e-04 -4.30968979e-04  1.17776825e-05
+ -2.08876811e-04 -2.86978712e-04]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -1.00810326e-03
- -3.56725802e-03  0.00000000e+00 -4.00360704e-04  0.00000000e+00
- -2.16374698e-04 -5.11682910e-07 -7.96841799e-07 -2.94401623e-07
- -3.29803899e-07 -4.29556936e-07]</t>
+          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00  5.62832108e-05
+ -4.25917224e-04 -2.19806258e-03  3.51135060e-04 -2.59929241e-02
+  1.41489018e-05  6.18907976e-05  1.30156792e-04 -3.35993887e-05
+  7.56969225e-05  1.05548607e-04]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[ 0.01186583 -0.03343304]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[1.         1.         1.         1.         1.         1.
- 1.         0.978      0.94919883 0.93692639 1.         1.
- 1.         1.         1.         1.         1.         1.
- 1.         1.        ]</t>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.932 1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-0.163   0.4448  0.2567  0.      0.      0.1168  0.      0.1668  0.
+          <t>[-0.163   0.4448  0.2567  0.      0.      0.24    0.     -0.06    0.
   0.      0.      0.      0.      0.    ]</t>
         </is>
       </c>
@@ -666,56 +658,56 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1.06       1.045      1.01       1.01732227 1.02       1.07
- 1.06332413 1.09       1.06       1.05436336 1.05864085 1.05549258
- 1.05098677 1.03813584]</t>
+          <t>[1.06       1.04487088 1.01       1.01060153 1.01501003 1.07564886
+ 1.02943576 1.01906444 1.03501439 1.0346458  1.0513263  1.05889867
+ 1.05221303 1.02432684]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[ 4.23008578e-11 -4.98226966e+00 -1.27277314e+01 -1.03096611e+01
- -8.77532964e+00 -1.41913422e+01 -1.33588636e+01 -1.33588636e+01
- -1.49324343e+01 -1.50877952e+01 -1.47734555e+01 -1.50445841e+01
- -1.51305423e+01 -1.60147341e+01]</t>
+          <t>[-1.24020622e-08 -5.00222197e+00 -1.27850161e+01 -1.02316480e+01
+ -8.77086204e+00 -1.44838856e+01 -1.32535588e+01 -1.32535588e+01
+ -1.48401433e+01 -1.50557469e+01 -1.48844656e+01 -1.53252775e+01
+ -1.53567724e+01 -1.60840348e+01]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00 -4.45222101e-09 -1.26343369e-09  2.69081589e-04
-  4.98730673e-04 -4.99067122e-04  8.90551815e-10  1.80411242e-16
- -2.69535371e-04 -4.32965229e-07 -5.44509718e-07 -1.49930831e-08
- -2.72970863e-07 -4.33973163e-07]</t>
+          <t>[ 0.00000000e+00 -4.40120632e-06 -4.28765836e-06  1.15268934e-05
+  6.72588232e-06 -2.60269496e-06  6.84464825e-06 -2.94902991e-17
+ -8.47940815e-06 -6.03956864e-06 -3.85596538e-06 -1.66033841e-06
+ -3.48612892e-06 -8.09223892e-06]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -9.48035514e-05
- -1.85278429e-04  0.00000000e+00 -1.08633273e-06  0.00000000e+00
-  8.73202232e-05 -8.80395932e-07 -1.28666408e-06 -2.71407457e-08
- -5.99595694e-07 -8.10845359e-07]</t>
+          <t>[ 0.00000000e+00 -5.18310353e-03  0.00000000e+00 -9.96067433e-07
+ -4.60148358e-07 -6.79249035e-06  1.73293140e-06 -2.52104843e-04
+ -7.10112424e-06  3.03522736e-07  9.70101359e-07  3.70965430e-07
+  3.05080914e-07  1.69572856e-06]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[ 0.01510781 -0.0281012 ]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>[1.         1.         1.         1.         1.         1.
- 1.         0.978      0.94923841 0.93696893 1.         1.
+ 1.         0.978      0.969      0.92640388 1.         1.
  1.         1.         1.         1.         1.         1.
  1.         1.        ]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-0.163   0.4448  0.2567  0.      0.      0.1168  0.      0.1668  0.
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
   0.      0.      0.      0.      0.    ]</t>
         </is>
       </c>
@@ -726,56 +718,56 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1.06       1.045      1.01       1.01732221 1.02       1.07
- 1.06332406 1.09       1.06       1.05436339 1.0586409  1.05549256
- 1.0509868  1.03813586]</t>
+          <t>[1.06       1.04264951 1.01       0.99880815 1.01       0.94252938
+ 0.98176249 0.97090104 0.96919242 0.95629722 0.94572602 0.92913555
+ 0.9266249  0.93076268]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[ 4.23006872e-11 -4.98227152e+00 -1.27277384e+01 -1.03096713e+01
- -8.77532315e+00 -1.41917237e+01 -1.33590229e+01 -1.33590229e+01
- -1.49326704e+01 -1.50880566e+01 -1.47737758e+01 -1.50449555e+01
- -1.51309031e+01 -1.60150242e+01]</t>
+          <t>[-1.13378563e-08 -4.61381986e+00 -1.23225529e+01 -9.35679835e+00
+ -7.80371394e+00 -1.28105949e+01 -1.27373458e+01 -1.27373458e+01
+ -1.45945180e+01 -1.46375686e+01 -1.39062694e+01 -1.39000264e+01
+ -1.40973246e+01 -1.55827071e+01]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  6.33684771e-12  1.15529808e-12  1.40922729e-05
-  4.09301152e-05 -4.09301779e-05 -4.53218046e-10  1.94289029e-16
- -1.40920488e-05 -1.43027881e-10 -1.96924227e-10 -5.74024162e-12
- -1.01491288e-10 -1.49778606e-10]</t>
+          <t>[ 0.00000000e+00 -6.28711750e-07 -3.31239912e-07  2.12732313e-06
+ -2.33912620e-04  5.38506391e-03  2.39002108e-06  2.93168267e-16
+ -6.76857864e-06 -3.11236571e-06 -4.04818617e-06 -1.89166959e-06
+ -6.00002614e-06 -4.16662436e-06]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -4.69009335e-06
- -1.47189270e-05  0.00000000e+00 -6.57004388e-09  0.00000000e+00
-  4.54161205e-06 -3.13803275e-10 -4.50020504e-10 -9.08863262e-12
- -2.08272607e-10 -2.86865462e-10]</t>
+          <t>[ 0.00000000e+00 -1.41243783e-06  0.00000000e+00 -2.96363993e-07
+ -9.12401140e-03  2.05039408e-03 -1.13936902e-07  2.24946674e-07
+  6.86778061e-07  6.21677274e-07  1.15221816e-06 -3.01087783e-07
+  1.55616376e-06  8.57498627e-07]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[ 0.01110133 -0.02943576]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[-0.00501003]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>[1.         1.         1.         1.         1.         1.
- 1.         0.978      0.94924127 0.93697197 1.         1.
+ 1.         0.978      0.969      1.09889897 1.         1.
  1.         1.         1.         1.         1.         1.
  1.         1.        ]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.163   0.4448  0.2567  0.      0.      0.1168  0.      0.1668  0.
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
   0.      0.      0.      0.      0.    ]</t>
         </is>
       </c>
@@ -786,57 +778,5531 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1.06       1.045      1.01       1.0173222  1.02       1.07
- 1.06332406 1.09       1.06       1.05436339 1.0586409  1.05549256
- 1.0509868  1.03813586]</t>
+          <t>[1.06       1.04233641 1.01       1.00128068 1.01       0.98845829
+ 0.99815313 0.98747711 0.99296241 0.98438988 0.98290765 0.97379574
+ 0.9702198  0.9637878 ]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[ 4.23006754e-11 -4.98227165e+00 -1.27277389e+01 -1.03096720e+01
- -8.77532269e+00 -1.41917510e+01 -1.33590343e+01 -1.33590343e+01
- -1.49326873e+01 -1.50880753e+01 -1.47737988e+01 -1.50449821e+01
- -1.51309290e+01 -1.60150450e+01]</t>
+          <t>[-1.25760205e-08 -5.05241011e+00 -1.30104064e+01 -1.03377032e+01
+ -8.82518257e+00 -1.54938207e+01 -1.39407422e+01 -1.39407422e+01
+ -1.58964600e+01 -1.61570468e+01 -1.59815666e+01 -1.64467972e+01
+ -1.65263405e+01 -1.73157341e+01]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  1.77913240e-14  6.99440506e-15  1.01645120e-06
-  2.92806166e-06 -2.92806277e-06 -1.54337724e-12  3.19189120e-16
- -1.01645181e-06 -1.77720338e-12 -2.24098518e-12 -6.18879947e-14
- -1.12806986e-12 -1.78373982e-12]</t>
+          <t>[ 0.00000000e+00 -1.10615707e-03 -4.72858674e-04  2.52509219e-03
+ -3.09129146e-02 -1.15427268e-01  2.41700621e-03 -3.13984949e-16
+ -7.06069915e-03 -2.99345751e-03 -3.60385598e-03 -1.86565625e-03
+ -5.59442330e-03 -4.08404595e-03]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -3.36830703e-07
- -1.04928399e-06  0.00000000e+00 -2.70243261e-11  0.00000000e+00
-  3.27350364e-07 -3.62354591e-12 -5.29123967e-12 -1.10883525e-13
- -2.46594412e-12 -3.33605366e-12]</t>
+          <t>[ 0.00000000e+00 -6.60909976e-04  0.00000000e+00 -3.41208103e-04
+  1.20055099e-01  6.20194655e-02 -9.47134486e-05  0.00000000e+00
+  5.59856552e-04  5.56648678e-04  1.03760046e-03 -2.72397560e-04
+  1.29133244e-03  7.79321557e-04]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.14086445 0.01823751]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0. 0.]</t>
+          <t>[0.]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>[1.         1.         1.         1.         1.         1.
- 1.         0.978      0.94924147 0.93697218 1.         1.
+ 1.         0.978      0.969      1.04006952 1.         1.
  1.         1.         1.         1.         1.         1.
  1.         1.        ]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.163   0.4448  0.2567  0.      0.      0.1168  0.      0.1668  0.
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
   0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[1.06       1.04273055 1.01       1.00453468 1.01       1.03892495
+ 1.01494495 1.00445246 1.01650372 1.01285138 1.02222079 1.02299919
+ 1.01764098 0.99837305]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-1.27940555e-08 -5.12985630e+00 -1.30921582e+01 -1.05135228e+01
+ -9.02496276e+00 -1.55210199e+01 -1.38769525e+01 -1.38769525e+01
+ -1.56604801e+01 -1.59356273e+01 -1.58573892e+01 -1.63866136e+01
+ -1.64191575e+01 -1.70599737e+01]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.68908987e-04 -1.16907316e-04 -7.00292628e-04
+ -1.10859809e-02  5.06649848e-02 -3.66778028e-04  2.94902991e-17
+ -1.63911539e-03 -7.36403365e-04 -8.57990018e-04 -1.94139310e-04
+ -6.13677161e-04 -8.07920350e-04]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.03015322e-03  0.00000000e+00 -4.04469521e-04
+  8.45024092e-02 -1.47715406e-02 -6.32730823e-05  0.00000000e+00
+  4.28318660e-04  9.01803645e-07 -8.64559853e-06 -8.38850447e-05
+  2.81008701e-05  2.55139641e-05]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[0.09620426 0.00184687]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[1.      1.      1.      1.      1.      1.      1.      0.978   0.969
+ 0.96145 1.      1.      1.      1.      1.      1.      1.      1.
+ 1.      1.     ]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[1.06       1.04463854 1.01       1.02336999 1.01       1.33643731
+ 1.11520566 1.10574158 1.15789077 1.18315334 1.25569112 1.31284942
+ 1.29762841 1.20401095]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-1.49141821e-08 -5.88242066e+00 -1.40679158e+01 -1.22190031e+01
+ -1.08750668e+01 -1.83963488e+01 -1.46138411e+01 -1.46138411e+01
+ -1.56724687e+01 -1.62642910e+01 -1.72961929e+01 -1.87035531e+01
+ -1.83762560e+01 -1.74836058e+01]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.18762304e-05 -2.97214406e-05  6.59637684e-04
+ -1.65957051e-03  7.19574794e-02  5.89939225e-04  1.99493200e-16
+ -6.81350599e-04 -2.90739960e-04 -3.68480416e-04 -3.06533160e-04
+ -9.12929825e-04 -4.72457436e-04]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.82584847e-05  0.00000000e+00 -5.63031503e-05
+  2.73155551e-02  1.31472889e-02 -5.82351966e-05 -1.69149997e-04
+ -1.63114960e-04  4.86763282e-05  1.28869090e-04 -1.57098297e-05
+  2.21639420e-04  8.22796724e-05]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[ 0.04700081 -0.01494495]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[1.06       1.04708799 1.01       1.00786013 1.01       1.05108675
+ 1.0183019  1.00790623 1.01889248 1.01723774 1.03079383 1.03604052
+ 1.02960385 1.00615415]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-7.65412031e-09 -3.34652436e+00 -1.01387859e+01 -6.65142395e+00
+ -4.86163792e+00 -8.29183271e+00 -8.74475918e+00 -8.74475918e+00
+ -9.84270674e+00 -9.74179295e+00 -9.02028110e+00 -9.08914216e+00
+ -9.15381373e+00 -1.03917021e+01]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.76016771e-03 -1.36885137e-03  1.59718100e-02
+  3.21161971e-02  4.49628259e-01  1.63106706e-02 -1.33573708e-16
+ -3.69228128e-02 -1.70739520e-02 -2.32641969e-02 -1.17978461e-02
+ -3.74664321e-02 -2.40066609e-02]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.85683852e-03  0.00000000e+00 -1.82909589e-03
+  7.20563504e-01  0.00000000e+00 -1.06277138e-03 -5.91346773e-04
+  1.62021408e-03  3.34907165e-03  6.40606354e-03 -1.36980378e-03
+  1.05178063e-02  5.11659974e-03]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[-0.24284942 -0.11520566]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      1.19137811 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[1.06       1.045      1.01       1.00171248 1.01       0.9797243
+ 0.99690203 0.98619197 0.99059752 0.98093402 0.97689088 0.96551609
+ 0.96239663 0.95906827]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-1.25302769e-08 -5.12626471e+00 -1.29914867e+01 -1.03415477e+01
+ -8.79758433e+00 -1.55506839e+01 -1.40235388e+01 -1.40235388e+01
+ -1.60054041e+01 -1.62632824e+01 -1.60650353e+01 -1.64953775e+01
+ -1.65804761e+01 -1.74062607e+01]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.59505919e-02 -3.98228294e-03 -8.35244352e-03
+ -3.51336899e-01 -2.40845796e-01  2.58022144e-03 -2.68882139e-16
+ -4.41727819e-02 -1.84431639e-02 -2.24577520e-02 -8.55877740e-03
+ -2.78090378e-02 -2.27021608e-02]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -1.00866940e-02
+  1.11405922e+00 -8.65639281e-01 -1.56633419e-04 -5.17408828e-04
+  9.86292562e-03  2.06860538e-03  3.29550730e-03 -1.97200814e-03
+  6.70654626e-03  3.30603714e-03]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[ 0.03395948 -0.0183019 ]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      1.07636281 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[1.06       1.04238365 1.01       1.00208901 1.01       1.00172782
+ 1.00244196 0.99179273 0.99900569 0.99171872 0.9931263  0.98669616
+ 0.98262053 0.97272143]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[-1.25828415e-08 -5.09066892e+00 -1.30611928e+01 -1.04210642e+01
+ -8.91981098e+00 -1.54994760e+01 -1.39646436e+01 -1.39646436e+01
+ -1.58752792e+01 -1.61357113e+01 -1.59705045e+01 -1.64358754e+01
+ -1.65072467e+01 -1.72812724e+01]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.91466147e-02 -4.16925605e-03 -9.41115824e-04
+ -1.31513065e-02  4.88053287e-02  3.11776892e-03 -1.56125113e-17
+ -8.01743608e-04 -5.88829146e-04 -1.66921706e-03 -1.33759099e-03
+ -4.34593890e-03 -1.67630537e-03]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -9.78087314e-02  0.00000000e+00 -1.72848293e-02
+  2.03366253e-01 -8.87314208e-02 -2.83989912e-03  0.00000000e+00
+ -4.92358973e-03 -6.35305086e-04 -2.13750726e-05  1.15041896e-05
+  1.13791381e-03 -2.96582185e-04]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[0.10448391 0.00309797]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      1.01678836 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[1.06       1.04300148 1.01       1.00659339 1.01       1.07069393
+ 1.02558866 1.01518335 1.03146173 1.03091442 1.04708238 1.05397495
+ 1.04753246 1.02026553]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-1.28253851e-08 -5.17763236e+00 -1.31421492e+01 -1.06235281e+01
+ -9.14736952e+00 -1.56352769e+01 -1.38495946e+01 -1.38495946e+01
+ -1.55361121e+01 -1.58312298e+01 -1.58428406e+01 -1.64421519e+01
+ -1.64398120e+01 -1.69485896e+01]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  3.46591822e-05 -2.57749909e-05  9.21028951e-05
+  7.18047133e-04  5.00966114e-02  7.26535319e-05  5.20417043e-17
+ -8.96301789e-05 -4.16220245e-05 -2.24563479e-05  1.42917304e-06
+ -3.04634418e-07 -4.51043411e-05]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.85026749e-04  0.00000000e+00 -1.55274886e-05
+  6.21522094e-02 -1.51569571e-03 -1.88366635e-06 -4.06892588e-05
+  1.66754239e-05  1.54580264e-05  1.48942133e-05 -1.49765251e-05
+ -2.57252854e-05  1.29395003e-05]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[ 0.08330384 -0.00244196]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.91617723 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[1.06       1.04297924 1.01       1.00078261 1.01       0.9726369
+ 0.99188393 0.9811239  0.98342764 0.97348708 0.96935806 0.95845638
+ 0.95494005 0.95153204]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[-1.12911461e-08 -4.63631611e+00 -1.23332403e+01 -9.41180722e+00
+ -7.86159240e+00 -1.29485382e+01 -1.26744688e+01 -1.26744688e+01
+ -1.44550373e+01 -1.45259661e+01 -1.39004790e+01 -1.39841557e+01
+ -1.41455685e+01 -1.54801355e+01]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -6.45877795e-05 -5.33404646e-05  1.19990514e-03
+ -6.38465913e-03  9.98806742e-02  1.05396221e-03 -1.71737624e-16
+ -1.52008373e-03 -6.94629348e-04 -9.30901713e-04 -6.09755261e-04
+ -1.84299788e-03 -1.06076555e-03]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.51234254e-05  0.00000000e+00 -9.58328475e-05
+ -2.67989364e-02  3.79740277e-02 -1.03652879e-04 -3.23905614e-05
+ -1.99171733e-04  1.29191153e-04  2.98723355e-04 -4.40300312e-05
+  4.69811782e-04  2.06052726e-04]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[ 0.01602505 -0.02558866]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      1.05879584 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[1.06       1.04271544 1.01       1.00380061 1.01       1.02680782
+ 1.01097827 1.00042998 1.01093056 1.00611222 1.01286539 1.01121326
+ 1.00630571 0.99017541]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[-1.25641128e-08 -5.08619829e+00 -1.30311287e+01 -1.04181555e+01
+ -8.91770680e+00 -1.54918763e+01 -1.38323896e+01 -1.38323896e+01
+ -1.56561926e+01 -1.59309033e+01 -1.58429154e+01 -1.63733211e+01
+ -1.64132281e+01 -1.70674129e+01]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -8.96871049e-04 -2.80720319e-04  9.73341724e-05
+ -3.54140943e-02 -1.03364090e-01  7.26438817e-04 -1.17961196e-16
+ -4.97865742e-03 -2.26720090e-03 -2.84564382e-03 -1.18457195e-03
+ -3.66059867e-03 -2.88683171e-03]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.54603702e-03  0.00000000e+00 -4.82079778e-04
+  1.45847430e-01  3.05462898e-02  5.71243017e-06  0.00000000e+00
+  9.56517481e-04  3.52498386e-04  6.07357462e-04 -2.08933809e-04
+  8.59827564e-04  5.11797834e-04]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[0.11154362 0.00811607]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.98034704 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[1.06       1.04362675 1.01       1.01228428 1.01       1.16007555
+ 1.05564649 1.04555785 1.07380147 1.08194823 1.11713757 1.14104797
+ 1.1316089  1.08193979]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[-1.33920735e-08 -5.37999488e+00 -1.33957584e+01 -1.10833319e+01
+ -9.64888841e+00 -1.63412797e+01 -1.39949374e+01 -1.39949374e+01
+ -1.54515021e+01 -1.58307126e+01 -1.61485235e+01 -1.69863718e+01
+ -1.68812983e+01 -1.69644004e+01]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -5.21033339e-04 -1.36987856e-04 -5.69508046e-04
+ -1.55451455e-02  7.20587186e-02 -1.66400234e-04  2.23779328e-16
+ -2.01356070e-03 -9.13543698e-04 -1.10041965e-03 -3.42812114e-04
+ -1.05914333e-03 -1.07115909e-03]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.08472915e-03  0.00000000e+00 -3.78759441e-04
+  5.25573210e-02  5.07535588e-04 -2.82617154e-05 -9.17922941e-05
+  5.03940943e-04  6.60295397e-05  1.00338325e-04 -9.34659274e-05
+  1.68907126e-04  1.14504034e-04]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[ 0.05878674 -0.01097827]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[1.06       1.04471825 1.01       1.01704947 1.01       1.22946118
+ 1.07764273 1.06774837 1.10432361 1.11938703 1.17017704 1.20821476
+ 1.19593857 1.12775628]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[-1.29723835e-08 -5.23296538e+00 -1.30853344e+01 -1.07560466e+01
+ -9.34506333e+00 -1.48412110e+01 -1.31216236e+01 -1.31216236e+01
+ -1.42868978e+01 -1.45891092e+01 -1.47731832e+01 -1.54854238e+01
+ -1.53840297e+01 -1.56120946e+01]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.61061920e-04 -2.50781565e-04  3.67524974e-03
+ -3.54138164e-02  2.26541147e-01  3.48404181e-03 -2.91433544e-16
+ -6.17081380e-03 -2.73396349e-03 -3.54225487e-03 -2.14583147e-03
+ -6.61747098e-03 -3.99335277e-03]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.27487285e-04  0.00000000e+00 -3.56419920e-04
+ -3.14619995e-01  0.00000000e+00 -2.65041625e-04 -1.17759080e-04
+ -2.23736636e-04  5.29629915e-04  1.09911934e-03 -2.07229465e-04
+  1.73528712e-03  8.04424659e-04]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[-0.07104797 -0.05564649]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[1.06       1.04487897 1.01       1.01343452 1.01       1.16752908
+ 1.05666619 1.04657156 1.07444395 1.08357624 1.12140567 1.1481036
+ 1.13779596 1.08491831]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[-1.17402422e-08 -4.80198521e+00 -1.24344581e+01 -9.81106905e+00
+ -8.31014792e+00 -1.32350278e+01 -1.22179495e+01 -1.22179495e+01
+ -1.34372639e+01 -1.36230865e+01 -1.34978374e+01 -1.39732491e+01
+ -1.39458381e+01 -1.45568730e+01]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  4.63620628e-05 -1.50911983e-05  1.85050760e-03
+  5.63445487e-02  3.64126730e-02  1.19821521e-03  2.56739074e-16
+ -2.69439442e-04  1.15921608e-04  3.59480661e-04 -9.29046026e-05
+ -3.28488205e-04 -1.84822864e-05]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.40771572e-04  0.00000000e+00 -3.65770086e-04
+  1.67523205e-01  0.00000000e+00 -3.26409564e-04 -2.44742038e-05
+ -9.17672043e-04 -1.90654059e-04 -2.73175833e-04 -2.80778192e-05
+ -1.70175278e-04 -1.94920269e-04]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[-0.13821476 -0.07764273]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.87528744 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[1.06       1.04334953 1.01       1.0012639  1.01       0.97610032
+ 0.99287085 0.98215079 0.9844208  0.97488823 0.97172275 0.96211818
+ 0.95833161 0.95377724]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[-1.07246840e-08 -4.43939252e+00 -1.20063170e+01 -8.98176103e+00
+ -7.40092015e+00 -1.18427970e+01 -1.20290214e+01 -1.20290214e+01
+ -1.36619951e+01 -1.36547785e+01 -1.28891168e+01 -1.28556221e+01
+ -1.30235446e+01 -1.44970910e+01]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -5.10132434e-04 -1.39680819e-04  3.67006609e-05
+ -4.58038912e-03 -8.10625955e-02  2.80091312e-04 -9.88792381e-17
+ -1.76525248e-03 -7.08755897e-04 -8.12088883e-04 -3.35687309e-04
+ -1.08436114e-03 -8.84332390e-04]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -9.94599804e-04  0.00000000e+00 -2.99673577e-04
+  3.90426640e-01  0.00000000e+00 -6.11801920e-06 -2.40770024e-05
+  3.27957755e-04  1.04231382e-04  1.61789532e-04 -8.17820767e-05
+  2.58122118e-04  1.44137231e-04]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[-0.0781036  -0.05666619]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      1.12705751 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[1.06       1.04218138 1.01       1.00012822 1.01       0.97059646
+ 0.99230011 0.98157376 0.98472291 0.97437194 0.96899009 0.95634689
+ 0.95338843 0.95154398]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[-1.24419452e-08 -5.04377585e+00 -1.30120435e+01 -1.03161885e+01
+ -8.79658938e+00 -1.54738909e+01 -1.40168707e+01 -1.40168707e+01
+ -1.60381854e+01 -1.62896844e+01 -1.60566695e+01 -1.64684973e+01
+ -1.65727830e+01 -1.74554459e+01]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -7.91208232e-04 -4.76295544e-04  6.46322629e-03
+ -4.54416011e-02 -1.68535642e-01  5.21228449e-03  1.82145965e-16
+ -1.24994753e-02 -5.21716853e-03 -6.19280582e-03 -3.13755105e-03
+ -9.82123123e-03 -7.06369983e-03]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -6.39378457e-04  0.00000000e+00 -6.15912280e-04
+  4.02434019e-01 -2.05208158e-01 -3.82564918e-04  0.00000000e+00
+  6.10596880e-04  1.02933554e-03  1.88713298e-03 -5.59873875e-04
+  2.33113469e-03  1.37302208e-03]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[0.10788182 0.00712915]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      1.06981352 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[1.06       1.04244409 1.01       1.00250282 1.01       1.00784274
+ 1.00453411 0.99394292 1.00190405 0.9952126  0.99792102 0.99268233
+ 0.98839656 0.97696948]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[-1.25812944e-08 -5.09267591e+00 -1.30592598e+01 -1.04270206e+01
+ -8.92705104e+00 -1.54801636e+01 -1.39361145e+01 -1.39361145e+01
+ -1.58218461e+01 -1.60827905e+01 -1.59290671e+01 -1.64022162e+01
+ -1.64667927e+01 -1.72210809e+01]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -5.63578303e-04 -8.81683542e-05 -2.12392105e-04
+ -5.90678545e-03  3.53904371e-02 -8.99171382e-05 -2.46330734e-16
+ -1.13479094e-04  2.46031097e-06 -1.75693036e-07 -2.89662571e-05
+ -1.03261472e-04 -2.65147390e-05]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.02932748e-03  0.00000000e+00 -1.10227981e-03
+  9.42814647e-02 -1.73826659e-02 -5.16372956e-04  0.00000000e+00
+ -7.89912674e-04 -3.32840399e-04 -3.79416233e-04  5.05475456e-06
+ -1.25189617e-04 -3.15054777e-04]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[0.11365311 0.00769989]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      1.00781173 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[1.06       1.04312229 1.01       1.00758017 1.01       1.08604229
+ 1.03074025 1.02038864 1.0387068  1.03965606 1.05910055 1.06893063
+ 1.06196814 1.03084406]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[-1.28971389e-08 -5.20572809e+00 -1.31746559e+01 -1.06877894e+01
+ -9.21808137e+00 -1.57200701e+01 -1.38533568e+01 -1.38533568e+01
+ -1.54968517e+01 -1.58039219e+01 -1.58631086e+01 -1.64996617e+01
+ -1.64803246e+01 -1.69212807e+01]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.86196384e-05 -1.46563131e-05  3.82782555e-04
+  1.91853947e-05  5.29930181e-02  3.32360319e-04 -1.47451495e-16
+ -3.91528772e-04 -1.89047719e-04 -2.65312549e-04 -1.81854340e-04
+ -5.47953455e-04 -3.00405308e-04]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.10268280e-05  0.00000000e+00 -3.18461529e-05
+  6.02362233e-02 -1.24759677e-03 -3.10160633e-05 -2.38237161e-04
+ -7.83594929e-05  4.09474352e-05  1.00015582e-04 -1.21874983e-05
+  1.40807161e-04  6.49947901e-05]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[ 0.07731767 -0.00453411]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.89466663 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[1.06       1.04346844 1.01       1.0053983  1.01       1.04545182
+ 1.01635436 1.00584904 1.01792819 1.01506908 1.02643567 1.02935418
+ 1.02340232 1.0017453 ]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[-1.17711705e-08 -4.80933436e+00 -1.25536459e+01 -9.80422334e+00
+ -8.28864029e+00 -1.35870165e+01 -1.28237289e+01 -1.28237289e+01
+ -1.44279121e+01 -1.45728005e+01 -1.42064226e+01 -1.44943390e+01
+ -1.45718670e+01 -1.55495931e+01]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -9.62789471e-05 -7.18157120e-05  1.46769087e-03
+ -9.78567930e-03  1.16503127e-01  1.29236998e-03 -3.98986399e-17
+ -2.00295502e-03 -9.07134030e-04 -1.19325894e-03 -7.48725196e-04
+ -2.27652010e-03 -1.35871665e-03]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -6.04395372e-05  0.00000000e+00 -1.18452639e-04
+ -6.36798258e-02  5.62406663e-02 -1.19854635e-04 -3.59681655e-05
+ -1.92654336e-04  1.71054040e-04  3.77048898e-04 -6.60966791e-05
+  5.72473967e-04  2.65364300e-04]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[ 0.00106937 -0.03074025]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.96341054 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[1.06       1.04748044 1.01       1.04665333 1.01       1.70109534
+ 1.23865203 1.23049069 1.33213909 1.39294489 1.54273081 1.66817966
+ 1.64117152 1.45697411]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[-1.69353682e-08 -6.64726068e+00 -1.50098684e+01 -1.39869815e+01
+ -1.27608227e+01 -2.24331013e+01 -1.52753981e+01 -1.52753981e+01
+ -1.55306852e+01 -1.66021660e+01 -1.92529528e+01 -2.20043132e+01
+ -2.11821211e+01 -1.80565123e+01]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.80223409e-04 -9.45466492e-05 -4.19720935e-04
+ -1.10069245e-02 -6.10573049e-02 -8.70938549e-05  1.64798730e-16
+ -1.30412910e-03 -6.09090898e-04 -7.87670561e-04 -2.61045141e-04
+ -8.30635305e-04 -7.35046958e-04]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -8.47922314e-04  0.00000000e+00 -2.89393998e-04
+  1.36692787e-01 -1.30203140e-02 -2.53768833e-05 -1.26873898e-05
+  3.10904406e-04  2.80336570e-05  4.34069419e-05 -5.70643128e-05
+  1.61582019e-04  7.43081346e-05]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[ 0.04064582 -0.01635436]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[1.06       1.045      1.01       1.00991864 1.01       0.95787609
+ 0.98833022 0.97806674 0.97083045 0.96424541 0.96214198 0.95124883
+ 0.948036   0.94902076]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[1.32408147e-08 4.10589379e+00 1.48286161e+00 8.64744358e+00
+ 1.17404678e+01 1.37954560e+01 1.00048408e+01 1.00048408e+01
+ 1.05865864e+01 1.14937237e+01 1.31640440e+01 1.34488148e+01
+ 1.35051513e+01 1.18456516e+01]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.54865312e-02 -7.19169900e-03  6.44690563e-02
+ -7.87623720e-02  1.41710948e+00  7.57027952e-02 -8.84708973e-17
+ -2.28304332e-01 -1.11572547e-01 -1.62673220e-01 -6.91517734e-02
+ -2.29045877e-01 -1.52323954e-01]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[ 0.          0.          0.         -0.00972603  2.88409831  0.
+ -0.00431021 -0.00298925  0.02590725  0.02075214  0.03583326 -0.00933484
+  0.06767828  0.03283124]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[-0.59817966 -0.23865203]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[1.06       1.045      1.01       1.01384803 1.01       1.10060158
+ 1.04662275 1.03697745 1.05666925 1.05721614 1.07493617 1.08323942
+ 1.07674468 1.04779526]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[-8.52498647e-09 -4.20149681e+00 -1.16932032e+01 -9.11941122e+00
+ -7.44048655e+00 -1.48851541e+01 -1.24376725e+01 -1.24376725e+01
+ -1.43318663e+01 -1.47993605e+01 -1.50800782e+01 -1.58076844e+01
+ -1.58406758e+01 -1.61385997e+01]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.26853505e-01 -4.33004579e-02 -1.56659340e-01
+ -2.73745925e+00 -3.44957868e-01 -2.70549771e-02 -1.11022302e-15
+ -2.86044066e-01 -1.04792756e-01 -1.17553799e-01 -3.95087475e-02
+ -1.32148536e-01 -1.22339721e-01]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[ 0.          0.          0.         -0.18103283  1.47150569 -0.29752668
+ -0.00722444  0.          0.07169646  0.00290119  0.00314992 -0.01353372
+  0.02457907  0.00818783]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[0.11875117 0.01166978]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.86100578 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[1.06       1.045      1.01       1.01412055 1.01       1.18310949
+ 1.06273379 1.0526878  1.0834017  1.09387555 1.13444635 1.16333238
+ 1.15280912 1.09671611]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[-1.13714266e-08 -5.30512334e+00 -1.32187278e+01 -1.08810661e+01
+ -9.46890857e+00 -1.53385712e+01 -1.35227842e+01 -1.35227842e+01
+ -1.48355655e+01 -1.51390252e+01 -1.52918066e+01 -1.59891568e+01
+ -1.58990666e+01 -1.61758086e+01]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.25570383e-01 -1.53121280e-02 -7.27630847e-02
+ -3.66870303e-01  1.87199761e-01 -3.19791558e-02  3.00107161e-16
+  5.63986928e-03  1.27737422e-02  2.40641461e-02  9.40298454e-03
+  3.45782296e-02  1.72440766e-02]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[ 0.          0.          0.         -0.12902634  0.03283919  0.
+ -0.02580999 -0.00321913 -0.02299159 -0.00704852 -0.00734615 -0.0002228
+ -0.01493071 -0.00969617]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[-0.01323942 -0.04662275]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[1.06       1.04477384 1.01       1.01575402 1.01       1.20749164
+ 1.0701623  1.06019392 1.09369387 1.10665375 1.15285765 1.1868654
+ 1.17528701 1.11251169]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[-1.07581306e-08 -5.08035873e+00 -1.28552934e+01 -1.04214704e+01
+ -8.97823052e+00 -1.43069989e+01 -1.28091339e+01 -1.28091339e+01
+ -1.40008558e+01 -1.42655895e+01 -1.43481894e+01 -1.49853159e+01
+ -1.49092998e+01 -1.52631200e+01]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.57961856e-03 -7.51832214e-05  1.87469015e-03
+  3.57063562e-02  1.07843510e-01  3.09844118e-03  3.64291930e-17
+  4.23513715e-04 -8.15338743e-04 -3.56442235e-03 -2.11935317e-03
+ -7.76566272e-03 -2.01027168e-03]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.11920795e-02  0.00000000e+00 -1.29455314e-03
+ -1.36092274e-01  0.00000000e+00 -4.14440924e-04  3.57375799e-05
+ -1.66217643e-03  1.82781254e-04  1.26567344e-03  1.19871358e-04
+  3.20543559e-03  6.45000681e-04]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[-0.09333238 -0.06273379]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[1.06       1.04479519 1.01       1.01456156 1.01       1.1872933
+ 1.06331849 1.05328459 1.08394959 1.09497164 1.13694556 1.16725846
+ 1.15631997 1.09853469]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[-1.03800994e-08 -4.94792667e+00 -1.26564740e+01 -1.01305978e+01
+ -8.65973627e+00 -1.37947278e+01 -1.25339910e+01 -1.25339910e+01
+ -1.37435877e+01 -1.39697224e+01 -1.39483146e+01 -1.45042814e+01
+ -1.44531039e+01 -1.49370371e+01]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.49828075e-05  7.66359796e-06  2.72764291e-04
+  1.62714860e-02  1.28639708e-02  1.50016356e-04  1.90819582e-17
+ -4.43173982e-05  2.48437786e-05  1.41926140e-04  4.79161788e-05
+  1.84752725e-04  2.64408394e-05]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.62829817e-04  0.00000000e+00 -1.34453244e-04
+  5.48079286e-02  0.00000000e+00 -6.64295794e-05 -3.30722047e-06
+ -1.36255762e-04 -3.33397716e-05 -8.66066023e-05 -1.51883923e-05
+ -1.45714943e-04 -4.12390679e-05]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[-0.1168654 -0.0701623]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.82413161 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[1.06       1.04443287 1.01       1.01172187 1.01       1.14271465
+ 1.04854743 1.03837104 1.06312477 1.06979433 1.10217514 1.12397154
+ 1.11458239 1.06812147]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[-1.01652902e-08 -4.87141421e+00 -1.25702151e+01 -9.95653405e+00
+ -8.46530176e+00 -1.35647164e+01 -1.25235221e+01 -1.25235221e+01
+ -1.38354385e+01 -1.40247166e+01 -1.38757138e+01 -1.43318421e+01
+ -1.43214558e+01 -1.49784124e+01]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.95278790e-05 -1.39165166e-05  7.51537710e-06
+  1.66616857e-03 -2.84199719e-02  2.86318920e-05 -3.46944695e-17
+ -1.92734344e-04 -7.96498821e-05 -9.19729407e-05 -3.55121689e-05
+ -1.13985816e-04 -9.89168575e-05]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -9.37406035e-05  0.00000000e+00 -2.88380624e-05
+  1.41316945e-01  0.00000000e+00 -4.48439905e-07 -2.56971629e-06
+  3.74308705e-05  1.22633779e-05  1.84402192e-05 -9.37060151e-06
+  2.62245756e-05  1.67783130e-05]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[-0.09725846 -0.06331849]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.87777537 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[1.06       1.04344924 1.01       1.00367339 1.01       1.01623451
+ 1.00637296 0.99577708 1.0036488  0.99798276 1.00327649 1.00102788
+ 0.99595057 0.98141503]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[-9.48967577e-09 -4.63052092e+00 -1.22854417e+01 -9.40690957e+00
+ -7.86111444e+00 -1.26943604e+01 -1.24147116e+01 -1.24147116e+01
+ -1.40167601e+01 -1.40855563e+01 -1.35227566e+01 -1.36500825e+01
+ -1.37703587e+01 -1.49913880e+01]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.76267631e-05 -2.42658743e-05  3.85318749e-04
+  2.34108381e-03 -5.69565623e-02  3.12690206e-04 -5.89805982e-17
+ -6.62414398e-04 -2.72155324e-04 -3.30108070e-04 -1.70761991e-04
+ -5.49623643e-04 -3.75401420e-04]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.83635121e-05  0.00000000e+00 -3.86377492e-05
+  2.42056650e-01  0.00000000e+00 -2.80584031e-05 -1.20646623e-05
+  1.02984402e-05  5.37440403e-05  1.00655979e-04 -2.94943176e-05
+  1.41968502e-04  7.48604696e-05]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[-0.05397154 -0.04854743]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      1.04152425 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[1.06       1.04293902 1.01       1.00540167 1.01       1.05147383
+ 1.01924437 1.00876879 1.02254077 1.02012593 1.03215324 1.03522439
+ 1.02946586 1.00712528]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[-1.08767472e-08 -5.11984178e+00 -1.30645384e+01 -1.04963075e+01
+ -9.00348223e+00 -1.55540494e+01 -1.38083337e+01 -1.38083337e+01
+ -1.55620292e+01 -1.58514437e+01 -1.58242726e+01 -1.63986800e+01
+ -1.64158840e+01 -1.69843730e+01]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.46631177e-04 -2.07994596e-04  2.96293647e-03
+ -1.70826573e-02 -1.26944117e-01  2.45805448e-03  3.64291930e-17
+ -5.47962607e-03 -2.32383489e-03 -2.82564418e-03 -1.46680390e-03
+ -4.59484573e-03 -3.19543301e-03]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.82062840e-04  0.00000000e+00 -2.80927157e-04
+  3.19773622e-01 -1.53571868e-01 -1.88038458e-04 -1.01432926e-04
+  1.67962785e-04  4.61947177e-04  8.71548289e-04 -2.38093475e-04
+  1.12748414e-03  6.33533758e-04]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[ 0.06897212 -0.00637296]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[1.         1.         1.         1.         1.         1.
+ 1.         0.978      0.969      0.94232738 1.         1.
+ 1.         1.         1.         1.         1.         1.
+ 1.         1.        ]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[1.06       1.03887736 1.01       0.95269115 1.01       0.20388223
+ 0.73206025 0.71856954 0.61632461 0.53188437 0.36521076 0.20963956
+ 0.23121428 0.41917555]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[-2.84917066e-09 -2.27735360e+00 -9.12412386e+00 -4.08806339e+00
+ -2.12291869e+00 -3.14025623e+00 -9.44840515e+00 -9.44840515e+00
+ -1.28872118e+01 -1.19765101e+01 -8.13124882e+00 -5.66417143e+00
+ -6.80819520e+00 -1.25019255e+01]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -5.23626044e-04 -1.15907969e-04 -7.90555308e-04
+ -2.02638684e-02  8.87811232e-02 -4.52133594e-04 -1.90819582e-17
+ -1.26699761e-03 -5.48391954e-04 -6.29424687e-04 -1.08807216e-04
+ -3.52120155e-04 -5.75883490e-04]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.30185860e-03  0.00000000e+00 -5.29744762e-04
+  9.34470387e-03  2.57872674e-02 -1.16612255e-04 -8.87250836e-06
+  2.78369028e-04 -8.17332875e-05 -1.32543397e-04 -6.39897032e-05
+ -4.56575105e-05 -6.33743374e-05]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[ 0.03477561 -0.01924437]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[-0.163   0.5     0.2567  0.      0.      0.24    0.     -0.06    0.
+  0.      0.      0.      0.      0.    ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[ 1.06        1.02375853  0.96549492  0.92590698  1.01        0.05018005
+  0.65304534  0.63804279  0.51962295  0.42126725  0.23043074 -0.00230939
+  0.02469197  0.25112546]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[-1.22072471e-08 -5.43942563e+00 -1.42438062e+01 -1.11601222e+01
+ -9.94381010e+00 -2.86483944e+01 -2.21820252e+01 -2.21820252e+01
+ -3.16367853e+01 -3.31929895e+01 -3.33648322e+01 -4.70657339e+01
+ -4.54624057e+01 -4.21894591e+01]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.25870996e-02 -1.34224788e-02  8.89094503e-02
+ -9.46006444e-01 -6.83636471e-02  7.25593035e-02  6.93889390e-18
+ -1.99333702e-01 -7.91263842e-02 -6.79063681e-02 -4.78730701e-02
+ -1.20129619e-01 -1.04457247e-01]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.07193216e-02 -2.79390175e-01 -1.28783685e-02
+ -2.81251073e+00  8.76258982e-01 -1.14699029e-03  0.00000000e+00
+  1.01355459e-02  1.06837519e-02  1.75492245e-02 -1.02645925e-02
+ -9.73338575e-03  8.34433071e-03]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[0.86036044 0.26793975]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[ 1.06        1.0202817   0.9583098   0.91915047  1.01       -0.06958638
+  0.6305941   0.61505094  0.49912006  0.37794519  0.14412247  0.19349461
+  0.31450643  0.34843196]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[-1.14255391e-08 -5.12049482e+00 -1.38368236e+01 -1.05483846e+01
+ -9.26941303e+00 -7.27084511e+01 -2.27768878e+01 -2.27768878e+01
+ -3.47455052e+01 -3.85006005e+01 -4.68271174e+01  2.93329594e+03
+ -2.65174380e+02 -5.55244805e+01]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.64185549e-03 -2.63720954e-03  5.86734309e-02
+  1.17658169e-01 -5.47519791e-02  5.85298211e-02  2.77555756e-17
+ -1.15634136e-02 -1.95102784e-02 -2.83945380e-02 -6.14509428e-02
+ -1.25517280e-01 -4.92230435e-02]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -6.11053104e-02 -1.78437274e-02 -3.57833077e-02
+ -4.45338188e+00  3.37052026e-01 -2.69413865e-02  0.00000000e+00
+ -7.81975384e-02 -5.97456435e-03  3.00047056e-03 -1.64466700e-02
+ -4.45813041e-02 -1.77346406e-02]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[1.07230939 0.34695466]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[ 1.06        0.98915172  0.89384009  0.82667104  1.01        0.09652063
+  0.2755964   0.25084937  0.09161143  0.02961546 -0.00876171 -0.89537816
+ -0.12989797 -0.17603358]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[-2.05257556e-08 -8.08875218e+00 -1.96283723e+01 -1.75517178e+01
+ -1.65635573e+01 -1.17408323e+02 -4.98858941e+01 -4.98858941e+01
+ -9.04933926e+01 -1.01170692e+02 -1.40031691e+02  2.46380072e+03
+ -2.72063006e+02 -2.75146556e+02]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.91680422e-04 -1.77845334e-04  5.56283473e-03
+  2.23530242e-01 -3.72417882e-01  6.96635844e-03 -1.07552856e-16
+ -2.85162866e-02  1.31531255e-02  2.17089183e-02  3.96045852e-02
+ -9.16388940e-01 -2.42807797e-02]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -5.79137481e-04 -1.10576880e-04 -1.51698741e-03
+ -4.84048843e+00  1.35544892e-01 -3.28874936e-03  0.00000000e+00
+ -1.29458071e-02 -1.24858380e-02 -1.75282203e-02 -2.08539081e-01
+ -9.53422719e-01 -5.76234040e-01]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[0.87650539 0.3694059 ]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[ 1.06        1.04958794  1.02093235  1.00622321  1.01       -0.04892424
+  1.06526227  1.12694462  0.58067775 -1.27407987 -0.03032166 -0.59966333
+  0.0609884  -0.18489498]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[-7.20207536e-09 -4.00979896e+00 -1.12647306e+01 -8.24808147e+00
+ -4.69026005e+00 -4.15302877e+02  6.42426200e+01  6.42426200e+01
+  2.42141150e+02 -3.22946479e+02 -4.63196042e+02  2.47604089e+03
+ -2.44194151e+02 -1.46896546e+02]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  3.42193328e-02 -4.30342936e-03  1.00754218e+00
+  3.82682358e-02 -9.30942767e-02  4.46433402e-01  3.81639165e-17
+ -3.18627762e-02 -7.91213981e-02 -3.92493133e-02 -3.18395605e+00
+ -6.11058017e-01 -1.72699409e-01]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -6.03729239e-02 -6.17475017e-03  2.17110959e-01
+ -7.44839048e+00 -2.51292589e-02  2.31287638e-02  0.00000000e+00
+ -7.25945906e-02 -4.64746680e-02 -2.17955886e-02 -4.99722346e+00
+ -1.40658411e-01 -1.17315051e-01]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[1.96537816 0.7244036 ]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[ 1.06        1.045       1.01       -0.76741109  1.01        0.09578401
+ -2.71837659 -2.5277201   1.94987004 -1.40218598 -0.00961569 -0.1984341
+ -0.2191919   0.14434807]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[-2.05397656e-08 -9.12990081e+00 -2.77459711e+01  1.07941795e+01
+ -1.44635152e+01 -2.46193908e+01  1.12018832e+03  1.12018832e+03
+  1.22659326e+03  7.49924886e+02  6.26511456e+02  2.82142257e+03
+ -2.38839684e+00  9.44722500e+02]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.03386748e-01 -3.00646747e-02  5.09295304e+00
+ -7.97946903e-01 -1.88048828e-01 -4.79201341e+00 -4.60742555e-15
+ -1.88863331e+00 -3.77591522e+00  2.08246036e-02 -1.42228302e+00
+ -5.84307655e-02 -5.00551751e-01]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -5.86472164e+00
+ -2.28623839e+00  1.28006213e-01 -1.94110165e+01 -4.54621572e-01
+ -6.46198564e+00 -1.83943169e+01 -2.01131037e-01 -1.75894141e+00
+ -1.92995284e-02 -4.52216717e-01]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[ 1.66966333 -0.06526227]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[ 1.06        0.86428946  0.13401706 -0.19918458  1.01        0.1985357
+ -1.10417488 -0.78183262  0.94398246 -0.89557522 -0.00238291  0.44234602
+  0.03100503  0.09582132]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[-4.50841108e-08  1.44881931e+01  1.69735960e+02 -5.86389734e+01
+ -1.50135414e+02 -3.10107829e+02  1.07660798e+03  1.07660798e+03
+  1.17150493e+03  6.79982920e+02  6.05333146e+02  2.46041923e+03
+  1.97085193e+02  8.96290875e+02]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.93144011e+00 -5.03117946e+00  1.13163917e-01
+ -1.73314510e+01 -2.12135168e-01 -5.12266568e+01 -1.37889700e-13
+  5.86414706e+01 -3.20601972e+01 -3.93319128e-03 -1.35244261e-01
+ -4.12844548e-01 -9.83420391e-01]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -9.47666768e+00 -7.52316357e+00 -3.75863712e+01
+ -3.75565346e+01  1.57484772e-01 -8.29559038e+01  0.00000000e+00
+ -7.31981826e+01 -6.85269256e+00 -7.23246894e-02 -2.99045978e-01
+ -5.45897801e-01  4.82461034e-01]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[1.2684341  3.71837659]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[ 1.06000000e+00  6.17059032e-01 -2.67873596e-02 -5.09222380e-03
+  1.01000000e+00  2.72293497e-01 -4.63916994e-01  3.07579770e-01
+  5.95710047e-01 -6.03091132e-01 -9.38802296e-03  7.97389601e-02
+  1.16856941e-02 -2.02204196e-04]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[-1.16131869e-07 -2.55943586e+01  2.12314971e+02 -2.97102592e+01
+ -1.25398609e+02 -3.37845047e+02  1.11773763e+03  1.11773763e+03
+  1.22143438e+03  7.08797684e+02  7.09721403e+02  2.25571237e+03
+  2.09362949e+02  9.33406790e+02]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -7.75640726e+00 -1.41528126e+00  3.39963831e+00
+ -1.32914667e+01 -4.46192398e-01 -1.03237507e+01 -1.73749903e-14
+  1.36050528e+01 -9.11026842e+00 -2.45223606e-02 -6.66250716e-01
+ -1.54955262e-01 -4.28064236e-01]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.26251175e+01 -2.84857574e-01 -1.76902022e+00
+ -4.27928860e+01 -1.14838253e+00 -1.75115571e+01  0.00000000e+00
+ -1.72876768e+01 -3.61778266e+00 -1.73184327e-02 -1.27131881e+00
+ -1.22206688e-01  5.93358745e-02]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[0.62765398 2.10417488]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[ 1.06        0.68851029  0.31988517  0.35884296  1.01       -0.55366077
+  0.12903863  0.47659573  0.30744916 -0.90746745 -3.78867474  0.20882625
+ -0.02733755 -0.03417807]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[-1.34503180e-07 -3.15975346e+01 -7.08374786e+01  2.47673921e+03
+ -6.06208242e+01  4.05458819e+02  4.34137364e+04  4.34137364e+04
+  4.35608919e+04  4.31262968e+04  5.63445649e+04  2.80743897e+03
+  1.24674006e+03  6.27631948e+04]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  5.21931674e-01 -1.00075329e+00 -3.61724690e-01
+ -3.38657983e+00 -1.02305744e+00 -2.45136427e+00  5.77315973e-15
+  3.21276927e+00 -2.64893259e+00 -3.49231227e-02 -1.42296197e-01
+ -1.46120134e-01 -1.48708530e-01]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.05912980e+00  2.60274364e-01  8.24015860e-03
+ -4.02538454e+01 -1.92992140e+00 -4.41811283e+00  0.00000000e+00
+ -5.45234787e+00 -1.45314683e+00  1.95451621e-04 -2.18251588e-03
+ -7.86819324e-02 -5.02818887e-02]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[0.99026104 1.46391699]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[ 1.06        0.43708255 -1.83228947  0.26709958  1.01       -0.41190965
+  0.1590226   0.49393503  0.14508062 -0.459076   -1.83546885 -0.04411984
+  0.01699122 -0.19872468]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[-8.89340858e-08 -7.20367779e+00 -3.18573654e+02  2.49449415e+03
+ -2.27389851e+01  6.37958604e+02  4.35917254e+04  4.35917254e+04
+  4.38326155e+04  4.33766944e+04  5.65917437e+04  3.08789673e+03
+  1.45127637e+03  6.31692743e+04]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[  0.           3.57539319   0.06988271  -1.28061935   0.36335601
+   2.6314892    0.41619279   0.           1.34331557 -24.06587595
+ -50.31142589  -0.45905546  -0.24784259  -0.11483179]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.72999458e-01  2.72675514e-01  5.13671159e+00
+ -2.33264499e+01 -1.38863062e+01 -3.30302242e-01  0.00000000e+00
+ -4.38756118e+00 -8.68474481e+00 -1.35201300e+02  6.98948537e-02
+ -5.27688023e-02 -5.10448674e-02]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[0.86117375 0.87096137]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[-4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[ 1.06        0.20667163 -0.50121482  1.28796821  1.01       -0.12534507
+ -0.52943878  0.08366026  0.21055927 -0.18013184 -0.90498488 -0.07469334
+  0.1034446  -0.68138414]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[-8.88489971e-08  2.47418292e+01 -4.53013005e+02  2.41175247e+03
+ -6.39724507e+01  7.23520263e+02  4.39765799e+04  4.39765799e+04
+  4.39501105e+04  4.34831086e+04  5.66844992e+04  3.20515592e+03
+  1.66766965e+03  6.24443163e+04]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.81734120e+00 -7.24536005e+00 -1.28119727e+00
+ -2.98797676e+00 -2.45622363e+00 -3.57859620e-01  5.55111512e-17
+  6.47478590e-01 -5.96192543e+00 -1.24758283e+01 -3.79511612e-03
+ -9.01437085e-02 -3.19150281e-01]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  2.50521625e+00 -3.78459660e+01  3.58047492e+00
+ -2.34485857e+01 -6.83946818e+00 -3.80679950e-02  0.00000000e+00
+ -9.48324085e-01 -2.26663513e+00 -3.32563579e+01 -3.08020859e-02
+ -7.04913854e-02 -1.95134860e-01]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[1.11411984 0.8409774 ]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[ 1.06       -0.05430492 -0.19901996  0.94555743  1.01       -0.47891754
+ -0.381034    0.1014793  -0.09501772  0.1501067  -0.46803118  1.70872221
+ -0.36761313 -0.27105912]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[-1.11752244e-07  4.51717670e+01 -4.44059815e+02  2.41363849e+03
+ -1.00423658e+02  1.20683659e+03  4.39912186e+04  4.39912186e+04
+  4.39236542e+04  4.39062852e+04  5.72462320e+04  1.54157015e+03
+  1.33704940e+03  6.25581340e+04]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.51345027e+00 -2.48680211e+00  6.10516529e+00
+ -1.77994576e+01  1.89741467e-01  1.32430658e+00  2.77555756e-17
+ -1.06700488e+00 -1.38726370e+00 -3.05432418e+00 -3.39853392e-02
+ -1.38095279e-01 -1.06583991e+00]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  2.48082210e+00 -5.41688468e+00 -5.14323325e+01
+ -7.59241169e+00 -7.18054141e-01 -3.42032424e+00  0.00000000e+00
+ -2.09442523e+00 -3.55214899e-01 -7.95667953e+00 -4.86365600e-02
+ -2.10883694e-01 -2.37613859e+00]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[1.14469334 1.52943878]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[-2.66453526e-15]</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[ 1.06000001  0.30331119 -0.1711402   0.64781043  1.01       -3.58872922
+ -0.09470746  0.15123373  0.94695174  0.28536686  0.43301734 -1.16003649
+  3.06551009  2.46700589]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[-6.48807749e-08  6.59647024e+01  2.43314196e+02  3.06095735e+03
+  5.37134115e+02 -3.12440458e+02  4.47453022e+04  4.47453022e+04
+  4.46888772e+04  4.30325747e+04  5.56428623e+04  4.18714012e+02
+ -3.41260554e+02  6.09122040e+04]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  9.66644015e-01 -1.01714082e+00 -2.23527328e+00
+ -1.18887619e-01 -3.36054304e+00 -2.29816523e-01 -2.49661403e-14
+  3.38539119e-02 -5.47291700e-01 -3.27208020e-01 -1.31869318e+01
+ -1.82957873e-02 -2.33797414e-01]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[  0.          -0.19095493  -1.24558986 -13.35087869 -13.76904154
+   0.          -1.17210086   0.          -0.31590929  -0.76093531
+  -3.05952249 -15.74561376  -0.96435042  -0.21712292]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[-0.63872221  1.381034  ]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[-4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[ 1.06       -0.49961832 -0.44197553  0.54928131  1.01       -2.13319206
+ -0.13664003  0.13526692  0.34387972  0.16742637  0.17257668 -0.67928125
+  1.43262501  1.22898604]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[-2.25465688e-07  1.43744117e+02  6.84106214e+02  3.26046396e+03
+  7.26537506e+02 -2.52654679e+02  4.47799881e+04  4.47799881e+04
+  4.47182859e+04  4.30529563e+04  5.56989784e+04  4.58116031e+02
+ -2.79367088e+02  6.09644157e+04]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[   0.           -2.406006     -0.56741616   -3.57045833    6.4327262
+  -87.32425092    0.38858803    0.            1.75997283   -2.74320363
+    4.79568905   -3.42711255 -118.3078534   -24.4307277 ]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[   0.           -0.48019123   -0.28823221   -2.82417589  -17.24844274
+ -268.17680329   -0.78182375    0.          -20.68489228   -2.39991029
+    3.47638823   -4.94279973 -139.64968058   -7.42783073]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[2.23003649 1.09470746]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[5.55111512e-15]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[ 1.06        3.04024111 -1.08435581 -0.10773153  1.01       -1.68988193
+ -0.24094163  0.10061696 -0.02845671  0.11778532  0.06320914 -0.61739625
+  0.53161365  0.34589816]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[-3.38250346e-07 -1.70241780e+02  6.21808723e+02  3.36728971e+03
+  8.03367767e+02  8.45820923e+01  4.50553551e+04  4.50553551e+04
+  4.49668005e+04  4.32615878e+04  5.60320690e+04  7.84503952e+02
+  6.33282109e+01  6.13096807e+04]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  8.30234965e+00 -3.08717239e+00 -3.03255116e+00
+ -1.43438801e+01 -1.82717961e+01  6.95403530e-01  0.00000000e+00
+  8.87014771e-03 -7.05171523e-01  1.14633610e+00 -6.44868547e-01
+ -2.94839285e+01 -5.89787593e+00]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[  0.          -1.56164783  -3.04656661   1.35098443 -18.08276116
+ -91.09203868  -0.49155294   0.          -3.15685219  -0.68253604
+   0.84064046  -1.15068071 -34.16451779  -2.47277609]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[1.74928125 1.13664003]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[-5.10702591e-15]</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[ 1.06        1.045      -0.19740573  0.0095803   1.01       -1.08486476
+ -0.04222366  0.1458352  -0.03368005  0.12187032  0.03290129 -0.44122604
+  0.23226028  0.30498815]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[-3.77880963e-07 -1.46754822e+02  6.01451165e+02  3.40778143e+03
+  8.50965651e+02  1.87461813e+02  4.48956757e+04  4.48956757e+04
+  4.46285312e+04  4.34364879e+04  5.61305920e+04  8.88477011e+02
+  1.71129582e+02  6.13523664e+04]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.27057986e+02  8.64733725e+00 -1.11157644e+00
+ -2.67102217e+00 -1.90910702e+01  5.83550369e-02  0.00000000e+00
+ -2.75454041e-01 -1.42905649e-01  3.41592884e-01  2.39849740e-01
+ -6.99717839e+00 -5.89960026e-01]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[  0.           0.         -20.00712449  -3.44858021 -49.1292229
+ -56.97636784  -1.23157238   0.          -0.14113387  -0.30766528
+   0.17456628  -0.27513051  -7.7534866   -0.22896902]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[1.68739625 1.24094163]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[-4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[ 1.05999992e+00  1.13574160e+01  1.15550264e+00 -3.27211136e-01
+  1.01000000e+00 -9.90916782e+00 -3.68437928e-01  3.35430484e-03
+  2.21469825e-01 -1.89075526e-01 -2.31765520e-01 -6.05674208e+00
+ -1.36439021e+00 -4.39410325e-01]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[-3.85271569e-06 -8.90899282e+02 -1.59740051e+02  1.19360966e+04
+  1.00970083e+04  1.85994958e+04  6.37366005e+04  6.37366005e+04
+  6.13068002e+04  6.04165156e+04  7.46848215e+04  1.94763973e+04
+  1.86725450e+04  7.93652173e+04]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[  0.         -11.46526368  -0.79558078  -0.51497006 -11.14958604
+  -4.98762381   0.01488746   0.          -0.26312678  -0.19224554
+   0.08620298   0.0771433   -1.90012906  -0.2354997 ]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[  0.         -48.05556923  -1.15904313   0.26759854 -39.47321193
+ -22.10508138  -0.07052646   0.          -0.15829574  -0.25531753
+   0.05409742  -0.09151866  -1.95082591  -0.39191337]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[1.51122604 1.04222366]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[ 1.05999993  1.04499996  1.01        0.05314179  1.01       -5.16293987
+ -0.13332158  0.00545656 -0.33541795  0.46542233 -0.14532966 -3.00047458
+ -0.60024129 -0.2583835 ]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[-3.91643968e-06 -8.73453394e+02 -1.59644236e+02  1.20063839e+04
+  1.00070129e+04  1.85540446e+04  6.39695767e+04  6.39695767e+04
+  6.14300021e+04  6.07542382e+04  7.46419507e+04  1.94305647e+04
+  1.86297486e+04  7.93656423e+04]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.24093214e+03 -9.09843047e-01 -9.48414588e+00
+  6.03340560e+00 -6.05937740e+02 -3.66811605e-01 -1.59594560e-15
+  2.00156301e-01 -4.07826443e-01  1.01030173e+01 -3.22669609e+02
+ -5.99807012e+01 -2.89518589e-01]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00  8.85197752e+00
+ -6.24729148e+01 -1.88641109e+03 -2.20326838e+00  0.00000000e+00
+ -1.06636761e+00 -1.97357459e-01 -2.50943283e+00 -3.16093646e+02
+  2.49547488e+01 -2.89052919e+00]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[7.12674208 1.36843793]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[-8.8817842e-16]</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[ 1.05999993 -0.67275903  0.37680382  0.2778591   1.01       -2.92519789
+ -0.08805219  0.00716915 -0.17487758  0.22802262 -0.06416121 -1.44273162
+ -0.22364967 -0.20285921]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[-3.58070390e-06 -8.88764121e+02 -1.87726827e+02  1.27259123e+04
+  1.08423543e+04  1.92505633e+04  6.46807062e+04  6.46807062e+04
+  6.21232174e+04  6.14499848e+04  7.53388651e+04  2.01266552e+04
+  1.93305565e+04  8.00909988e+04]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.52574004e+00 -2.62253681e+00  5.57707063e-02
+  1.48103661e+01 -1.85188410e+02 -1.07199868e-01 -2.16840434e-19
+ -2.47442960e+00 -3.99154763e-01  3.23223371e+00 -8.07801023e+01
+ -1.41852022e+01  2.75321755e-01]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.58593619e+01 -4.74384580e+00 -1.32886943e+00
+ -3.46050677e+01 -5.17569583e+02  5.03600477e-02  0.00000000e+00
+ -2.99529038e+00 -4.63691207e+00 -3.26031366e-01 -7.95177659e+01
+  6.37968705e+00 -6.62967856e-01]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[4.07047458 1.13332158]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[ 1.0599999   4.88628986  3.52860548  0.24422004  1.01       -2.13757129
+ -1.14387615 -0.06675721 -0.33322391 -0.02360395 -0.0418862  -0.59268014
+ -0.05366755  0.4208578 ]</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[-2.57030784e-06 -3.18236792e+02 -3.81589141e+02  1.53931328e+04
+  1.35501208e+04  2.29644587e+04  6.80378477e+04  6.80378477e+04
+  6.56816610e+04  6.49228527e+04  7.90616988e+04  2.38415847e+04
+  2.30346432e+04  8.34309133e+04]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  9.22140443e-01 -2.29171004e+00 -7.76134389e+00
+ -1.81951206e+01 -4.16861907e+01  2.34122204e-02 -2.16840434e-19
+ -7.07012431e-01 -1.40907231e-01  7.86940547e-01 -2.02499558e+01
+ -3.24652876e+00 -4.17218581e-02]</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.45938160e+00 -1.72078445e+00 -2.24909116e-01
+ -2.23836373e+01 -1.54728462e+02  6.07976409e-03  0.00000000e+00
+ -8.63456532e-01 -1.17923705e+00 -9.03591868e-02 -2.00033824e+01
+  1.56334813e+00 -2.37633077e-01]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[2.51273162 1.08805219]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>[4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[ 1.0599999   1.04499998  1.01       -0.80551652  1.01       -1.14268566
+ -2.19475188  0.00267686  0.68006924 -0.07507691 -0.02034251 -0.27368661
+ -0.00972787 -1.91193575]</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[-2.58141670e-06 -2.83984871e+02 -4.00484923e+02  1.45264177e+04
+  1.37519942e+04  2.33101029e+04  7.00674974e+04  7.00674974e+04
+  6.77464317e+04  6.69737780e+04  7.93898851e+04  2.41876628e+04
+  2.33078324e+04  8.43771556e+04]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.43458003e+02  3.94137948e+01  3.47488072e+00
+ -1.25770247e+01 -2.40608340e+01  2.32600155e+00  0.00000000e+00
+ -2.35517159e+00 -1.41955981e-02  3.59712301e-01 -4.88387160e+00
+ -5.67578527e-01 -1.90501215e-01]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  0.00000000e+00  0.00000000e+00 -2.40475392e+00
+ -6.61667272e+01 -8.74628039e+01 -2.85987461e+01  0.00000000e+00
+ -5.70203643e+00 -2.44393048e-02 -1.95867367e-02 -4.79553117e+00
+  3.76577530e-01 -1.02518981e+00]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[1.66268014 2.14387615]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[ 1.05999991  0.89399834 -0.63779608 -0.40741033  1.01       -0.92586451
+ -1.08350365  0.00402892  0.33510313 -0.02768589 -0.01172015 -0.08618874
+  0.0146912  -0.96741362]</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[-2.58851995e-06 -4.24376264e+02 -8.08793432e+02  1.42892429e+04
+  1.34581633e+04  2.29686691e+04  6.98373089e+04  6.98373089e+04
+  6.75155850e+04  6.67411058e+04  7.90618303e+04  2.38482225e+04
+  2.28218856e+04  8.41482821e+04]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>[  0.         -33.14952761   0.49570216  18.02633247 -27.37083033
+ -10.59912533  -4.08058711   0.         -12.07001389  -0.66659346
+   0.06159485  -1.1902581   -0.14911882  -6.38537559]</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.04624519e+01 -8.75116742e+00 -4.21400942e+01
+ -3.03861085e+01 -1.80066461e+01 -8.30272822e+01  0.00000000e+00
+  9.84630180e-01 -3.10811093e-01 -5.66448757e-02 -1.16178776e+00
+ -1.25286564e-02 -2.26770802e+01]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[1.34368661 3.19475188]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[-4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[ 1.05999998e+00  1.20852898e+01  8.93316303e+00  2.42471226e+00
+  1.01000000e+00  2.97469282e+00 -1.37744554e+00  2.94398813e-03
+  5.50647934e-01  4.71249684e-02 -7.05276059e-02 -2.46772244e-01
+  1.26145079e-01  8.41854443e-02]</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[-3.20090245e-07  2.57701142e+03  5.13914984e+03  1.40536493e+04
+  1.37076144e+04  2.51057696e+04  6.89407549e+04  6.89407549e+04
+  6.65108787e+04  6.56968992e+04  8.13241215e+04  2.59817627e+04
+  2.38823004e+04  8.28583644e+04]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  5.91007561e+00 -3.94199281e+00  8.52918195e+00
+ -2.28559798e+01 -3.44628301e+00 -1.01695376e+00 -2.16840434e-19
+ -3.14974583e+00 -1.92227644e-01  1.23508263e-02 -2.97623834e-01
+ -1.63125350e-01 -1.70951286e+00]</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.00608943e+01 -4.58623585e+00 -6.44180356e+00
+ -3.56371002e+01 -1.08595250e+01 -2.05102793e+01  0.00000000e+00
+  1.75772624e-01 -9.60998158e-02 -2.03656549e-02 -2.50405422e-01
+  6.05363383e-02 -5.77769714e+00]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[1.15618874 2.08350365]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[ 1.05999998  1.04499996  1.00999986  0.6929513   1.01        4.00477771
+ -0.61186593  0.00457328  0.29542236 -0.0556476  -0.02309155  0.19223975
+ -0.05363721 -0.29469622]</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[-3.78315297e-07  2.59515893e+03  5.27394348e+03  1.40168392e+04
+  1.35180656e+04  2.72601135e+04  6.89008850e+04  6.89008850e+04
+  6.64741411e+04  6.55887988e+04  8.34826251e+04  2.81341127e+04
+  2.60555488e+04  8.25596093e+04]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.16239236e+03 -6.11581005e+02  2.12343187e+02
+  3.33112246e+01 -5.30664017e+01 -3.25046382e+00  0.00000000e+00
+  7.14533596e+00  1.55789940e-01  4.75080204e-01  1.56714302e+00
+  1.92882778e-01 -2.70901482e-01]</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[   0.            0.            0.         -123.81081136   65.23849843
+ -157.18526717  -21.18083335    0.           -8.0754387    -0.19478664
+   -0.85119138    1.36041274   -2.84038028   -0.17084395]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[1.31677224 2.37744554]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>[-6.66133815e-16]</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[ 1.05999997 -0.97113741  1.04738536  0.08259406  1.01        2.25602728
+ -0.27043673  0.00708765  0.21742269 -0.04926486 -0.01023229  0.08215773
+ -0.0211447  -0.38369174]</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[-6.85391454e-07  2.96767192e+03  5.61377305e+03  1.42584434e+04
+  1.37010900e+04  2.73664302e+04  6.91271989e+04  6.91271989e+04
+  6.67066278e+04  6.57911635e+04  8.35953821e+04  2.82410191e+04
+  2.61561098e+04  8.26214836e+04]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.46446852e+01 -3.92100177e+00 -2.02999652e+01
+  9.02127709e+00 -1.22310167e+02 -1.07062461e+00  0.00000000e+00
+  1.64774476e+00 -9.50738919e-02  2.20129204e-01 -2.36395921e+00
+ -8.29828369e-01 -5.32512419e-01]</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.19536001e+01 -1.62278840e+01 -2.59965281e+01
+ -4.91606903e+01 -2.71077644e+02 -5.24804733e+00  0.00000000e+00
+ -2.11349505e+00  7.81016791e-02 -3.61563963e-01 -1.87728640e+00
+  1.21447759e+00 -2.61581889e-01]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[0.87776025 1.61186593]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[8.8817842e-16]</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[ 1.05999997 -0.16763226  1.01       -0.07561537  1.01        1.34788097
+  0.29974783  0.02128686 -0.18660829 -0.33157539 -0.00478632  0.02755296
+ -0.00718818 -0.46296671]</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[-7.62058929e-07  2.89210466e+03  5.31081473e+03  1.39219601e+04
+  1.33932781e+04  2.70152868e+04  6.91925279e+04  6.91925279e+04
+  6.62889878e+04  6.54162625e+04  8.32728322e+04  2.78922774e+04
+  2.57921326e+04  8.24642980e+04]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  7.23280582e+00  4.51316189e-01 -1.10494332e-01
+ -1.97228335e+01 -3.05310327e+01 -4.70618744e-01 -2.16840434e-19
+ -2.52848744e-01 -3.44572710e-02  3.50767971e-02 -6.01070061e-01
+ -2.71619853e-01 -2.92491948e-01]</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.33437871e+01  0.00000000e+00 -1.41548105e+00
+ -2.44108541e+01 -7.77289580e+01 -1.25968187e+00  0.00000000e+00
+ -1.06293148e+00 -3.73945243e-04 -9.68300323e-02 -4.59810542e-01
+  2.51521119e-01 -1.01407683e+00]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[0.98784227 1.27043673]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[ 1.05999997e+00 -2.72865657e-02  7.86864092e-01 -3.29933819e-02
+  1.01000000e+00  8.07575985e-01  1.46579086e-01  3.39649731e-02
+ -6.88838188e-02 -1.73196501e-01 -5.21736048e-04  1.22450600e-05
+ -7.75173139e-03 -1.89221241e-01]</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[-7.57319150e-07  2.85734601e+03  4.86156538e+03  1.34513820e+04
+  1.29688173e+04  2.66433322e+04  6.84099181e+04  6.84099181e+04
+  6.55759494e+04  6.47155891e+04  8.29054360e+04  2.75329292e+04
+  2.53320917e+04  8.17122183e+04]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -5.25439389e-01 -4.82807388e+00  3.99463650e-02
+ -1.87678388e+01 -6.31171059e+00  1.82748368e-01  1.73472348e-18
+ -1.19545031e+00 -6.53037888e-01 -5.48207639e-03 -1.62948301e-01
+ -1.46387917e-01 -4.83775788e-01]</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.54283065e+00 -9.87510676e+00  1.09082073e+00
+ -3.09509192e+01 -2.78457765e+01 -2.07743148e+00  0.00000000e+00
+ -1.66687646e+00 -2.36618799e+00 -3.46202290e-02 -1.06331960e-01
+ -2.45838621e-03 -1.01409301e+00]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[1.04244704 0.70025217]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>[-4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[ 1.05999997e+00 -2.73373034e-02  4.76470766e-01 -9.88783913e-02
+  1.01000000e+00 -1.43049608e-01  8.54481918e-01 -2.71745944e-01
+  1.66745393e-01 -1.70232797e-01  8.24905478e-03 -1.69535377e-02
+  8.09862199e-04  1.29727396e+00]</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[-7.80192287e-07  2.66681342e+03  5.72567451e+03  1.28850828e+04
+  1.28953090e+04  2.67402258e+04  5.92363813e+04  5.92363813e+04
+  5.77845820e+04  5.71127324e+04  8.35584518e+04  9.30605202e+04
+  2.65286310e+04  7.05210959e+04]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.77285513e-01 -2.82621193e+00  1.17894319e-01
+ -1.01523591e+01 -4.16465093e+00 -8.62268311e-02 -4.33680869e-19
+ -3.92064208e-01 -2.20663371e-01 -3.32410835e-02 -6.10205526e-02
+ -9.69320964e-02 -1.96163703e-01]</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.00313516e-02 -5.89181119e+00  1.57102596e-01
+ -2.66488246e+01 -8.41938545e+00 -4.43134133e-01  0.00000000e+00
+ -3.74391752e-01 -6.26297974e-01 -1.88670994e-02 -1.60284825e-02
+ -5.13724125e-02 -2.44182003e-01]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[1.06998775 0.85342091]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[ 1.05999997  0.01029308  0.32763663  0.00238242  1.01        1.08525088
+  0.34099993 -0.37155944  0.02186768 -0.10815229  0.03353157 -0.06041565
+  0.03390969  0.65791393]</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[-8.30102160e-07  2.65357690e+03  5.94672338e+03  1.27511400e+04
+  1.27238141e+04  2.68063430e+04  5.92683058e+04  5.92683058e+04
+  5.77979926e+04  5.71595139e+04  8.36316831e+04  9.27281066e+04
+  2.76327770e+04  7.05371664e+04]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>[ 0.          0.5236651  -1.55019021 -1.4316566  -5.5671019  -0.11101116
+ -0.67784952  0.         -0.27396952 -0.11127832 -0.03652398 -0.06916362
+ -0.13163324 -5.13531994]</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  8.37258256e-01 -2.20015997e+00 -2.46991987e+00
+ -3.51525433e+01  2.65558351e-01 -1.43332702e+01  0.00000000e+00
+ -3.63668746e-01 -7.58139324e-01 -1.34901158e-02 -1.25936162e-02
+ -5.80423715e-02 -9.30508818e+00]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[1.08695354 0.14551808]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[ 1.05999998 -0.13734621  0.29855584 -0.00616556  1.01        1.00668709
+  0.14251481 -0.43958613  0.04556494 -0.04620517  0.01284533 -0.00902798
+ -0.03924865  0.41417365]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[-2.34836982e-07  3.43941561e+03  2.32618019e+03  1.04223590e+04
+  1.09360652e+04  2.55655395e+04  5.77713155e+04  5.77713155e+04
+  5.63518248e+04  5.58721081e+04  8.23934929e+04  9.14940098e+04
+  2.65520386e+04  6.87133019e+04]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  4.72993528e-02 -1.28867517e+00 -4.79762848e-01
+ -1.16995985e+01 -1.04221445e+01 -3.80851998e-02 -1.11022302e-16
+ -2.76024640e-01 -1.24722826e-01  1.26671701e-01 -1.79379013e-02
+ -3.30881121e-01 -1.33713123e+00]</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  3.57442434e-01 -8.27536158e-01  9.58623673e-02
+ -3.32657492e+01 -1.77048306e+01 -2.93306174e+00  0.00000000e+00
+ -1.59795436e-01 -2.29315442e-01  1.76351805e-02 -2.55140289e-01
+ -3.15557804e-02 -2.33754477e+00]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[1.13041565 0.65900007]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[ 1.05999998  1.20737474  0.36106483  0.00367317  1.01        0.29122893
+  0.10996515 -0.45359079  0.40404423 -0.66098369  0.03497167 -0.00863264
+  0.06264063  0.21997233]</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[-1.82026750e-07  3.48189411e+03  2.43954581e+03  9.99716634e+03
+  1.06259709e+04  2.50302490e+04  5.83550323e+04  5.83550323e+04
+  5.68272593e+04  5.40830409e+04  8.18598169e+04  9.10679837e+04
+  2.61182246e+04  6.92900778e+04]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>[  0.           0.55926532  -1.36356402  -0.49828665 -18.2584843
+  -2.75578858   0.02001221   0.          -0.2692505   -0.11439771
+   0.01990086  -0.05010034  -0.41747434  -0.64017206]</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.41170892e+00 -7.94470150e-01  1.88039684e-01
+ -4.37190382e+01 -2.07490752e+01 -6.93167774e-01  0.00000000e+00
+ -2.09363995e-01 -7.13051431e-02 -4.54476187e-03 -4.60470321e-02
+  4.52324046e-02 -1.01411727e+00]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[1.07902798 0.85748519]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[ 1.05999998  1.045      -3.90683678 -0.01500464  1.01       -0.32746923
+  0.05873892 -0.47643483  0.19446344 -0.35066492 -0.07982118 -0.05735503
+  0.43241669  0.04431208]</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[-2.15965814e-07  3.48961096e+03  2.96548195e+03  9.89120759e+03
+  1.06977823e+04  2.51598234e+04  5.77517754e+04  5.77517754e+04
+  5.62470113e+04  5.35041861e+04  8.14484485e+04  9.10659778e+04
+  2.59694302e+04  6.86599551e+04]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.87982234e+00 -2.22817491e+00 -5.59667718e-01
+ -3.89653222e+00 -6.90127291e-01 -4.05320411e-01 -1.11022302e-16
+ -2.22181533e+00 -4.80918106e-02  6.64531902e-02 -5.29474302e-02
+ -1.21532640e-01 -1.53914094e-01]</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  0.00000000e+00  8.89022951e-01  9.30900034e-02
+ -3.62650751e+01 -1.82676849e-01 -5.04784707e-01  0.00000000e+00
+ -1.48179009e+00 -5.27246824e+00 -1.09316355e-01 -1.00946462e-02
+  5.54785971e-02 -5.71346137e-01]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[1.07863264 0.89003485]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[ 1.05999998 -0.17091318 -1.76513764  0.0048992   1.01        0.37455924
+ -0.08960031 -0.5462978   0.01112418 -0.13389646  0.07998207  0.29754979
+  1.35383776 -0.10024592]</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[-8.99389936e-08  3.38753849e+03  2.87460521e+03  9.85721611e+03
+  1.07304784e+04  2.39646989e+04  5.71142956e+04  5.71142956e+04
+  5.53596026e+04  5.26269271e+04  8.03929011e+04  9.02903341e+04
+  2.54854048e+04  6.80986604e+04]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.61297283e+01 -4.91555919e+01 -1.17769961e+00
+ -5.28517708e+00 -6.15042348e-01 -9.53560790e-02 -1.11022302e-16
+ -7.02169001e-01 -2.49186608e-01 -1.26632473e-01 -1.52328383e-01
+ -5.50244633e-01 -1.65650037e-01]</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.11255005e+01 -1.29760928e+02  2.57649523e-01
+ -3.14021267e+01 -1.84023136e+00 -1.86116415e-01  0.00000000e+00
+ -3.61485039e-01 -1.58798034e+00 -2.24018896e-01  6.25807208e-02
+ -2.60513124e+00 -1.34165379e-01]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[1.12735503 0.94126108]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[ 1.05999997 -0.17084361 -0.87512381  0.01022587  1.01        0.5759053
+  0.35396786 -0.30470114  0.26259565 -0.11377535  0.06398613  7.80966187
+  0.72618259 -0.07554864]</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[-1.43292069e-07  3.35128107e+03  2.86516610e+03  9.88848731e+03
+  1.05655431e+04  2.57766197e+04  5.93279428e+04  5.93279428e+04
+  5.63474273e+04  5.48958636e+04  8.23366108e+04  9.23828154e+04
+  2.78491932e+04  7.04506051e+04]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  8.85243254e-01 -1.03275742e+01 -4.24406887e-01
+ -5.75575306e+00  3.76166637e+00 -4.31089519e-03 -3.16413562e-14
+ -2.93736958e-01 -2.28353316e-01  8.11184613e-02  1.64542735e-01
+ -1.43074115e+01  1.63235902e-01]</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.09490720e+00 -3.17888690e+01 -5.18934531e-02
+ -3.33071202e+01 -3.31471323e+00  1.14828060e-01  0.00000000e+00
+ -1.55707995e-01 -3.31199677e-01 -1.81997962e-01  6.89920179e-01
+ -1.64182865e+01  7.16161328e-04]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[0.77245021 1.08960031]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[ 1.05999997 -1.29197315  0.10976791 -0.09545577  1.01       -4.15967928
+  0.09809019 -0.38563184  0.11671716 -0.51163084 -0.53660884  2.89384751
+  1.01516233  1.43332482]</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[-5.94412555e-07  3.71015700e+03  2.61402124e+03  1.09805526e+04
+  1.17921452e+04  2.56477647e+04  5.50118444e+04  5.50118444e+04
+  5.18696216e+04  5.05142132e+04  8.30797059e+04  9.23459589e+04
+  2.78667152e+04  6.88523347e+04]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.61729649e+00 -2.83428909e+00 -5.41154406e-01
+ -1.21011441e+01  1.80810912e+00 -8.46147232e-01  2.78443935e-13
+  4.83425833e-02 -3.74990766e-01 -6.30324025e-02 -2.53294937e+02
+  1.07048086e+01  1.81638530e-02]</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.43390505e+00 -7.82660696e+00  2.81242586e-01
+ -3.70189031e+01  0.00000000e+00 -3.22455042e+00  0.00000000e+00
+ -2.30549687e+00 -5.20843519e-01  9.04276283e-02 -3.02848058e+02
+ -2.16397795e+01 -1.19870768e-01]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[-6.73966187  0.64603214]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[ 1.06       -4.63921127 -0.20865769  0.10752181  1.01       -2.93520144
+ -0.05867745 -0.45517152  0.19933449 -0.39874685 -0.17335998  2.80862744
+  0.03741407  0.17086092]</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[2.91419409e-07 4.45699907e+03 3.43056212e+03 1.19325833e+04
+ 1.27718366e+04 2.65603478e+04 5.55371582e+04 5.55371582e+04
+ 5.24718016e+04 5.13671748e+04 8.39855063e+04 9.33288145e+04
+ 2.87832766e+04 6.96617207e+04]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  6.98493939e+00 -1.37696929e+00 -3.14048983e+00
+ -2.08742395e-02 -1.83112883e+02  1.45770287e-01  4.87943019e-14
+ -5.59335566e-01 -1.20662784e+00 -4.32087740e+00  8.25211170e+00
+  1.63366439e+01 -2.04980546e+00]</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[  0.         -42.92966754  -0.49749296   0.82217211 -16.33376914
+   0.          -0.40029447   0.          -0.29599193  -5.51379349
+ -13.3492538  -48.4544025  -31.75214246  -9.96791602]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[-1.82384751  0.90190981]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[ 1.06       -2.50254588 -0.05376902  0.21499542  1.01       -2.99008359
+  0.02867545 -0.40848588  0.10362425 -0.19940262 -0.01865898  1.950465
+  0.00562865  0.18899656]</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[8.18114465e-07 4.51606142e+03 3.48694956e+03 1.19324573e+04
+ 1.27377641e+04 2.67115777e+04 5.57484237e+04 5.57484237e+04
+ 5.26279942e+04 5.15219826e+04 8.41390436e+04 9.34805721e+04
+ 2.89416695e+04 6.99733517e+04]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.49179004e+02 -4.04007523e+00 -1.62947848e+00
+ -1.59103053e+01 -4.23439049e+01  1.17252565e-02 -5.17086374e-14
+ -5.13411289e-01 -1.92549826e+00 -8.66982221e-01 -1.44701586e+01
+  4.43827176e-01 -1.22881152e-01]</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -6.27667274e+02  3.47019688e+00 -1.55094406e+00
+ -6.06599820e+01  0.00000000e+00  1.68197359e-01  0.00000000e+00
+ -1.87808192e+00 -3.18396530e+00 -2.75701891e+00 -1.95066411e+01
+ -1.00809455e+00 -2.70993324e-01]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[-1.73862744  1.05867745]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[-1.33226763e-15]</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[ 1.06000001 -2.26193333  0.05801575 -3.47431416  1.01       -2.55996989
+  0.13296259 -0.35811047  0.02157101 -0.11443812 -0.02513023  1.43843323
+  0.00620425 -0.02928649]</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[1.07391842e-06 4.51904587e+03 3.30246363e+03 1.07044584e+04
+ 1.21065838e+04 2.62078546e+04 5.41932820e+04 5.41932820e+04
+ 4.97075181e+04 4.87590707e+04 8.35122532e+04 9.29767644e+04
+ 2.85132405e+04 6.71723621e+04]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.60361942e+01 -1.34637211e+00  2.94325879e+00
+ -2.25385712e+01 -6.31285814e+01  5.27373320e-02  3.78030940e-14
+ -2.99739651e-01 -5.01784640e-01 -1.10517984e-01 -3.09205275e+00
+ -3.53635623e-02 -2.81216959e-01]</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.55228749e+02  7.68491361e-01 -7.46906628e-03
+ -4.24422765e+01  0.00000000e+00 -1.03211589e-01  0.00000000e+00
+ -6.26664798e-01 -8.11189601e-01 -2.78900835e-01 -4.15965608e+00
+ -1.70561742e-01 -1.88541185e-01]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[-0.880465    0.97132455]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[ 1.06000001 -0.72085952  0.079128   -1.3980026   1.01       -2.90498106
+  0.07283162 -0.3834684   0.09064266 -0.05375727  0.00347116  1.50944186
+  0.00692195  0.39278467]</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[9.49247188e-07 4.51524876e+03 3.33737992e+03 1.08098047e+04
+ 1.22022391e+04 2.63629587e+04 5.42916549e+04 5.42916549e+04
+ 4.97919441e+04 4.88213061e+04 8.36652868e+04 9.31319671e+04
+ 2.86657295e+04 6.45870222e+04]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.54645583e+01 -5.21798788e-01 -1.28875575e+02
+ -8.19396222e+01 -2.84456373e+01 -2.14433558e+00 -5.53168622e-13
+ -1.86221843e-01 -1.48350531e-01 -2.22978567e-01 -5.92259993e-01
+ -1.14224737e-02 -1.50030278e-01]</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.19697657e+02  1.53252666e+00 -5.11837265e+02
+ -1.05357641e+02  0.00000000e+00 -1.36998177e+00  0.00000000e+00
+ -1.00611092e-01 -2.52738403e-01  1.90305428e-01 -8.23857167e-01
+  3.41667277e-03 -5.24180194e-02]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[-0.36843323  0.86703741]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[6.66133815e-16]</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[ 1.06000001e+00 -2.36635348e+00  4.32102414e-01  7.53609704e-02
+  1.01000000e+00 -2.59695585e+00  3.65772322e-02 -4.00023450e-01
+  2.71182171e-01  7.73685306e-02  7.00777373e-04  1.35287044e+00
+  7.10112012e-03  2.71598158e-01]</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[1.11835145e-06 4.26387146e+03 4.85360537e+03 1.14162083e+04
+ 1.29971201e+04 2.70773119e+04 5.48770059e+04 5.48770059e+04
+ 5.05973572e+04 4.95128867e+04 8.44274195e+04 9.38462726e+04
+ 2.93798121e+04 6.52201696e+04]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -7.34516651e+00 -6.71946112e-01 -7.54773504e+00
+ -3.97711766e+01 -4.34561817e+01 -4.87537171e-01 -1.26176847e-13
+ -4.64676979e-02 -5.20447494e-02 -8.52217474e-03  2.78154082e-02
+  1.66983170e-02 -5.57819327e-01]</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -5.15654335e+00  6.75708543e-03 -1.08022872e+02
+ -3.86904734e+01  0.00000000e+00 -4.24489521e-01  0.00000000e+00
+ -2.80707289e-01 -1.02410451e-01 -5.45914877e-02  4.45446685e-02
+  1.53689080e-02 -7.58880249e-01]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[-0.43944186  0.92716838]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>[2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[ 1.06000002 -0.41843861  0.31022074  0.07312628  1.01       -3.31856783
+  5.05699243  2.0004378   1.00880561 -1.15139122  0.00536697  1.7289499
+ -0.00590554 -0.02587377]</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[7.81182180e-07 4.29793496e+03 4.87893455e+03 1.12449292e+04
+ 1.26175719e+04 2.68672116e+04 5.56433245e+04 5.56433245e+04
+ 4.29383729e+04 4.18016636e+04 8.42849806e+04 9.36368991e+04
+ 2.93922287e+04 5.76542645e+04]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -9.91194282e+01 -4.33352833e+00 -9.84267932e-01
+ -6.10958117e+00 -3.57945756e+01  7.16839936e-02 -3.78030940e-14
+ -8.76491466e-01 -2.59662803e-02 -2.66578417e-02  9.42678239e-04
+  5.94875232e-03 -2.63738581e-01]</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.73864906e+02  2.37899155e+00 -2.07299322e+00
+ -4.10642641e+01  0.00000000e+00 -4.26599818e-02  0.00000000e+00
+ -1.71861570e+00  6.42787519e-02 -1.85558799e-02  4.69686219e-03
+  1.24932411e-03 -6.84090874e-01]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[-0.28287044  0.96342277]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[ 1.06000006e+00  3.14047281e+00 -1.29868853e+01 -2.14707900e-01
+  1.01000000e+00  4.50861527e-01  2.58442756e+00  9.04284280e-01
+  4.88730782e-01 -5.69153013e-01  5.93867217e-03 -2.40485692e-01
+ -1.05526089e-02  3.08984828e-02]</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[-1.31536592e-06  1.99578389e+03  7.27449903e+03  7.19883507e+02
+  3.32402826e+03  1.64408744e+04  4.47324260e+04  4.47324260e+04
+  3.20267932e+04  3.08918082e+04  7.41113676e+04  8.32110835e+04
+  1.89329842e+04  4.67541394e+04]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -7.65233292e+00 -1.66175876e+00  6.33138938e-02
+ -2.16501373e+00 -7.26022119e+01 -4.63938670e+01 -3.42770790e-09
+  4.66607435e+01 -2.03213301e+01 -7.50711441e-03 -1.56153792e-01
+ -6.69493940e-02 -2.32592998e-01]</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.11333374e+01 -1.75769014e-01  9.39224516e-02
+ -2.21299028e+01  0.00000000e+00 -4.55324877e+02  3.46515948e+01
+ -4.69955624e+01 -2.24827574e+01  2.54277981e-02  1.34691864e-01
+  9.46290743e-02 -8.48362187e-02]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[-0.6589499  -4.05699243]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[-4.21884749e-15]</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[ 1.06000006  1.04500001 -6.98706119  0.35973767  1.01        0.23224826
+  2.03219038 -0.39669793 -0.15134099 -0.45679854 -0.14801383 -0.10923271
+  0.02562296  0.15020607]</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[-1.30859895e-06  1.99282789e+03  7.20679561e+03  1.96425104e+02
+  3.28531172e+03  1.64634319e+04  4.62103413e+04  4.62103413e+04
+  3.34391862e+04  3.22603149e+04  7.53779800e+04  8.32260609e+04
+  1.90038537e+04  4.81405429e+04]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  7.76412908e+01 -6.82115992e+02  8.69951252e+00
+  4.16540867e+00 -1.92448120e+00 -8.34636019e+00 -8.20532475e-10
+  1.11776279e+01 -4.95846335e+00 -4.47283984e-02 -7.58256395e-02
+ -1.70810687e-01 -1.07847069e-01]</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  0.00000000e+00 -1.50649829e+03  6.02639604e-01
+ -4.73061195e+01 -4.41076453e+00 -1.20279178e+02  8.56518963e+00
+ -1.16975059e+01 -5.61931994e+00 -2.58566975e-02 -2.61059691e-02
+ -8.09142212e-02 -2.84102433e-02]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[ 1.31048569 -1.58442756]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>[-2.88657986e-15]</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[ 1.06000007  0.33988352 -3.51155841  0.35198485  1.01        0.18579232
+  1.06804137 -0.18731552 -0.27165397 -0.09030124 -0.32031089 -0.03728923
+  0.0532036  -0.12937515]</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[-1.32408712e-06  2.03077331e+03  7.22653637e+03  1.65500986e+02
+  3.31444056e+03  1.62378091e+04  4.61680067e+04  4.61680067e+04
+  3.33449339e+04  3.19814483e+04  7.52001943e+04  8.29789425e+04
+  1.87072247e+04  4.83044554e+04]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.09932836e+01 -1.34342734e+02 -7.85264212e+00
+ -9.72542426e+00  2.08365335e-01  3.69746341e+00  4.67748063e-10
+ -1.46956226e+00 -9.08356413e-01  1.17294352e-01 -3.85364096e-02
+ -1.32669160e-01 -2.74881511e-01]</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.65874165e+01 -4.33732571e+02  6.23163107e+00
+ -4.47097025e+01 -1.23761402e+00 -8.10984814e+01 -5.52996859e+00
+  2.19183857e+00 -3.35093115e+00 -1.54104348e-01 -1.47144998e-02
+ -5.37210585e-03 -1.72308124e-01]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[ 1.17923271 -1.03219038]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[ 1.06000007 -0.07452499 -1.57545361  0.56974045  1.01        0.20745134
+  0.5216308  -0.08794047  0.55674729  0.15951975 -0.63046997 -0.96640255
+ -1.87333295 -0.47098306]</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[-1.31937628e-06  2.18381678e+03  7.19793520e+03  2.32088967e+01
+  3.24257774e+03  1.64386147e+04  4.62927528e+04  4.62927528e+04
+  3.33285823e+04  3.20740887e+04  7.48241883e+04  8.33553151e+04
+  1.74178154e+04  4.85683171e+04]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -6.25891021e-01 -3.81105969e+01 -4.83766145e+00
+ -6.47392885e+00  2.11381284e-01 -6.61114355e-03  1.16336017e-10
+  1.45269708e+00 -2.69648114e-01 -6.80899151e-01 -4.06163484e-02
+ -9.95092588e-02 -1.89651733e-01]</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.19580587e+00 -1.09924714e+02  1.03446945e+00
+ -3.60836753e+01 -1.58084357e-02 -2.11109423e+01 -1.39492951e+00
+ -2.24985586e-01  7.70644542e-02 -6.90323912e-01 -7.67206131e-03
+ -6.60821239e-02 -2.67663297e-01]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[ 1.10728923 -0.06804137]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[ 1.06000007 -0.00126087 -0.7016108   0.51018675  1.01        0.08441447
+  0.19546747 -0.12906229  0.18649274  0.12148993 -0.38318861 -0.3885694
+ -0.91700878 -0.07918896]</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[-1.34066703e-06  2.16657139e+03  7.12754919e+03 -6.57721563e+01
+  3.18075740e+03  1.62532465e+04  4.62234956e+04  4.62234956e+04
+  3.32459605e+04  3.19833330e+04  7.46842220e+04  8.31879964e+04
+  1.72410337e+04  4.83883447e+04]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  8.35421189e-02 -1.18779726e+01 -4.62106591e+00
+ -1.71935457e+00  2.35552975e+00  4.89489019e-02  2.78000123e-11
+ -2.63657802e+00 -5.12856819e-02 -1.62108484e+00 -5.48736332e+00
+ -2.13384320e+01 -4.56298630e-01]</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[  0.          -1.1230995  -27.07590727  -6.61125313 -20.30741315
+  -2.36875495  -4.37977758   0.          -5.75184371  -1.57331709
+  -3.66135009   0.65205609 -39.30988477  -3.35686498]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[2.03640255 0.4783692 ]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[ 1.06000007 -0.02010769 -0.27959879  0.51158207  1.01       -0.8699856
+  0.10721891 -0.154172    0.15140377 -0.16829796  0.74458961  2.31972464
+ -0.12266809 -0.10849985]</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[-1.52181739e-06  1.66164315e+03  6.59734388e+03 -6.27019250e+02
+  2.62484921e+03  1.78322912e+04  4.58439055e+04  4.58439055e+04
+  3.26045136e+04  3.13847885e+04  7.42657827e+04  8.47487105e+04
+  1.81941456e+04  4.90472282e+04]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.82673342e-01 -3.39106619e+00  7.79410816e-01
+ -2.88707476e+00 -3.98980863e-02  1.38550247e-01  2.40969744e-12
+ -4.58532056e-01 -7.40676149e-02 -5.19928658e-01 -1.14828219e+00
+ -5.27061830e+00 -2.27971349e-01]</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[  0.           0.34699525  -6.34472971  -1.8590545  -21.70067074
+  -0.29698574  -0.99953017   0.          -1.13282489  -0.40888929
+  -1.06501661   0.22176419  -9.43063569  -0.31012894]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[1.4585694  0.80453253]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[ 1.06000006 -0.00442647 -0.0696379   0.86710768  1.01       -0.65570458
+  1.08818335  0.20976147 -0.26344231  0.79273207 -0.68171334  1.13581712
+  0.07729927  0.42308193]</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[-1.56839179e-06  1.72326589e+03  6.87733768e+03 -4.01960390e+02
+  2.83313579e+03  1.80536905e+04  4.58849681e+04  4.58849681e+04
+  3.18773782e+04  3.21033710e+04  7.48080249e+04  8.49728449e+04
+  1.84425413e+04  4.77540838e+04]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.76635768e-01 -1.12119403e+00  2.20622245e+00
+ -1.63154599e+01  2.91972191e+00  7.75528349e-03  4.05411815e-13
+ -3.94815434e-01 -8.88515579e-01 -4.70191875e+00 -2.92691427e+01
+ -1.05854272e-03 -1.87573468e-01]</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[  0.           0.71026215  -1.34834411  -0.21269669 -22.92824882
+   0.          -0.06442446   0.          -0.60768827  -0.47234478
+  -4.19734964 -31.6895286   -0.50567483  -0.09275411]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[-1.24972464  0.89278109]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[ 1.06000006 -0.01062936 -0.20049047  0.62970294  1.01       -0.82987118
+  0.55349553  0.11773693 -0.06133915  0.20609081 -0.06453587  0.45675483
+ -0.00290178  0.22866986]</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[-1.57297052e-06  1.88475282e+03  6.95616738e+03 -4.19988123e+02
+  2.82170145e+03  1.81624761e+04  4.58689637e+04  4.58689637e+04
+  3.18873404e+04  3.21527509e+04  7.49058226e+04  8.51116944e+04
+  1.84673255e+04  4.77891380e+04]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  7.42553270e-02 -6.80143218e-01 -6.07061316e+00
+ -3.39876372e-01 -2.38414106e+00  6.92713301e-01  3.80079301e-11
+  2.16153305e+00 -2.31956688e+00 -1.78963888e+00 -7.38610003e+00
+ -2.69720810e-01 -6.01635789e-01]</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  3.49096449e-01 -1.25869611e-02 -1.35391580e+01
+ -1.34224299e+01  0.00000000e+00 -2.81663396e+01  9.86034986e-01
+ -3.07989172e+00 -6.27049207e+00 -3.33682778e+00 -8.20085528e+00
+ -2.79191531e-01 -1.42094534e+00]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[-0.06581712 -0.08818335]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[6.66133815e-16]</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[ 1.06000007  0.08121028  0.25897635  0.47680908  1.01       -1.04488969
+  0.34292939  0.19569204 -0.01439024 -0.02356479 -0.05396357  0.10702241
+ -0.03115214  0.15910587]</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[-1.04901604e-06  2.29336958e+03  8.39645119e+03  1.12068011e+03
+  4.36999372e+03  2.01525585e+04  4.74260318e+04  4.74260318e+04
+  3.37191583e+04  3.44424489e+04  7.68503475e+04  8.71026220e+04
+  2.05327184e+04  4.99131445e+04]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  4.32493906e-01 -7.77629203e-01 -4.49711825e-01
+  3.33762662e-01 -7.03097974e+00  5.62158947e-01  1.00940367e-11
+ -3.61612159e-02 -4.05151718e-01 -3.64306600e-02 -1.69230355e+00
+ -1.22940102e-01 -2.53714689e-01]</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[  0.           0.3602289    0.44681719  -2.4967459  -16.96612136
+ -11.04236038  -7.27205043   0.          -0.4562861   -0.65372598
+  -0.26286909  -2.22723088  -0.05394834  -0.36589531]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[0.61324517 0.44650447]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[ 1.06000008 -0.09841267 -0.69024588  0.26907201  1.01       -0.31534615
+  0.04709032 -0.9991014   0.06099181  0.07758    -0.03864288  0.05913931
+  0.03186827  0.20756985]</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[-1.13678618e-06  2.17323837e+03  8.21596088e+03  6.59604028e+02
+  3.91660956e+03  1.98621242e+04  4.69843099e+04  4.69843099e+04
+  3.31580876e+04  3.35876808e+04  7.65745969e+04  8.68143972e+04
+  2.01465955e+04  4.74110804e+04]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.74487512e+00 -1.64564603e+00  2.36176139e+00
+ -6.18317533e+00 -1.17522797e+01  5.89062835e-01 -2.90188359e-12
+ -3.21407886e-01 -9.66849052e-02 -1.59167871e-01 -3.47300526e-01
+ -1.06980854e-01 -2.20950471e-01]</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[  0.          -0.06924095   0.03205158   0.26452801 -26.29141532
+ -22.04744053  -2.51986082   0.          -0.20273327  -0.05861896
+  -0.26972267  -0.40088893   0.14731095  -0.17944847]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[0.96297759 0.65707061]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[ 1.06000008 -0.04196251 -0.22307254  0.63062534  1.01       -0.95119224
+  0.28016075 -0.88524927 -1.24019048 -2.39336873  1.02713095 -0.04463458
+ -0.05239122  0.82573193]</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[-1.16320143e-06  2.13637413e+03  8.21798364e+03  5.85912869e+02
+  3.83127322e+03  2.02668329e+04  4.80513023e+04  4.80513023e+04
+  3.72846472e+04  4.13735646e+04  7.58388825e+04  8.71837948e+04
+  2.14589084e+04  5.21643443e+04]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.03426840e-01 -2.52305403e+00  1.77704198e+00
+ -7.39968192e+00  2.45781420e-01  4.14985753e-02  1.41803236e-11
+ -3.14011814e-01 -1.66816551e-01 -4.12847781e-02 -1.13363043e-01
+ -2.19259455e-01 -2.39060816e-01]</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[  0.          -1.94895302  -5.38951045   1.31532173 -25.58408887
+  -1.42928145  -0.3586119    0.          -0.30436748  -0.09834152
+  -0.07656453  -0.08390277  -0.05073256  -0.33118692]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[1.01086069 0.95290968]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[ 1.06000008 -0.04091523 -0.26517889  0.47005584  1.01       -5.0787994
+ -0.69182402 -1.30484545 -1.51352648 -1.62822226  3.35415041  0.22070098
+  0.15474974  3.83365677]</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[-1.14993217e-06  2.12090161e+03  8.36358753e+03  6.55892492e+02
+  3.76975320e+03  1.80977216e+04  4.54021229e+04  4.54021229e+04
+  3.51941925e+04  3.92563057e+04  7.35357207e+04  8.49555686e+04
+  1.94294867e+04  5.05459872e+04]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  4.47046368e-02 -4.68754899e-01 -9.03424412e-02
+ -1.50599556e+00 -1.01969221e+01 -1.03183733e+00 -3.61270014e-10
+  7.41317902e+00 -5.32650078e+01 -1.02426084e+01  6.73152306e-02
+ -5.84268497e-01  1.63142719e+00]</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.78246850e-01 -7.35608189e-01 -2.77305255e+00
+ -2.20936791e+01 -9.74501895e+00 -5.08050542e+00  0.00000000e+00
+ -6.67486229e+01 -9.86952273e+01 -2.22979133e+00  2.02976221e-02
+  1.32663492e-02 -3.44447475e+00]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[1.11463458 0.71983925]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>[2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[ 1.06000007 -0.18225302  0.23980483  0.03159596  1.01       -2.71938134
+ -0.28164206 -1.02577287 -0.83476297 -0.78821407  1.58895315  0.09998703
+  0.05329946  1.93996232]</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[-7.75742676e-07  2.39566629e+03  7.28952025e+03 -1.50870696e+02
+  2.93847526e+03  1.71495102e+04  4.44692118e+04  4.44692118e+04
+  3.42660453e+04  3.83203042e+04  7.25889617e+04  8.40067480e+04
+  1.84782632e+04  4.96159824e+04]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.04300167e-01 -6.64889991e-01 -1.42276142e+01
+  1.87937437e+01 -2.15728153e+02 -5.98085649e+00  3.93848332e-09
+  3.64022678e+01 -6.79378969e+01 -5.71592772e+01 -3.30023935e+00
+ -4.06776176e+00 -4.76546718e+01]</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.18535784e-02 -9.66326305e-02 -1.21118325e+01
+ -5.84862326e+01 -5.27572285e+02 -9.63824534e+00  0.00000000e+00
+ -7.28183545e+01 -2.94885571e+01 -1.78664057e+02  2.22666039e+00
+  2.03965943e+00 -6.22181836e+01]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[0.84929902 1.69182402]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>[4.4408921e-16]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[ 1.06000008e+00  5.73986148e-01  6.20317235e-02 -3.96459556e-04
+  1.01000000e+00 -1.64179541e+00 -1.77240072e-01 -9.65265212e-01
+ -4.11385967e-01 -4.05731435e-01  7.42055674e-01  3.54831934e-02
+  1.43471231e-02  9.67607448e-01]</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[-9.10610739e-07  2.38455917e+03  7.15069501e+03 -5.28771225e+02
+  2.49879829e+03  1.66534347e+04  4.39934092e+04  4.39934092e+04
+  3.37763888e+04  3.78266008e+04  7.20935628e+04  8.35084254e+04
+  1.79766418e+04  4.91259849e+04]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.50173779e+00 -1.17074998e+00 -1.03472200e+00
+ -1.48366707e+01 -5.30046966e+01 -1.80377100e+00  1.01693076e-09
+  9.60226822e+00 -1.66683692e+01 -1.40574988e+01 -8.40353772e-01
+ -9.08805290e-01 -1.21841536e+01]</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[   0.            2.88286497   -0.18571316   -0.52253848  -20.90218828
+ -132.69635923   -1.12065605    0.          -19.75896744   -6.99222934
+  -43.28079095    0.53898992    0.41692892  -15.47436862]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[0.97001297 1.28164206]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[ 1.06000008  0.1041304  -0.29151399  0.01026969  1.01       -1.16318862
+ -0.16293684 -0.95739064 -0.21074758 -0.22170805  0.30210646  0.00392083
+ -0.00352796  0.48739199]</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[-7.98862332e-07  2.40594295e+03  7.28282535e+03 -3.18303870e+03
+  2.67311589e+03  1.70070676e+04  4.44043351e+04  4.44043351e+04
+  3.41643525e+04  3.81955729e+04  7.24494888e+04  8.38488556e+04
+  1.82837212e+04  4.95081397e+04]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  3.90831763e+00 -1.12102621e+00 -4.81379825e-01
+ -1.77921013e+01 -1.24022084e+01 -4.51548638e-01  2.58707056e-10
+  2.26845340e+00 -4.21598974e+00 -3.51960794e+00 -2.20734073e-01
+ -2.51115878e-01 -3.10788779e+00]</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.05168743e+01  2.24017810e-01  4.68584464e-02
+ -3.10012317e+01 -4.81691119e+01 -1.27933555e-01  0.00000000e+00
+ -5.03616845e+00 -1.84188524e+00 -1.07298870e+01  1.12326466e-01
+  4.14755839e-02 -3.87450785e+00]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[1.03451681 1.17724007]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>[2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[ 1.06000007e+00  1.48230354e+00 -6.08243220e-01 -5.10346131e-02
+  1.01000000e+00  2.07620523e+00 -3.96044894e-01 -1.08478521e+00
+ -1.33143510e-01 -1.71120115e-01  4.29360641e-01  5.25775174e-03
+ -4.78382539e-04  2.57866820e-01]</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[-2.32700033e-06  1.62687795e+03  5.17648533e+03  7.13108646e+01
+  5.77550561e+03  2.27952521e+04  5.04079205e+04  5.04079205e+04
+  4.01491723e+04  4.40615600e+04  7.82378434e+04  8.94260506e+04
+  2.43221447e+04  5.54582891e+04]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  9.12983358e-01 -1.21513883e+00 -2.82330252e-01
+ -9.00937298e+00 -1.33153338e+01 -9.92950214e-02  2.10418349e-11
+  4.09402378e-01 -1.08662566e+00 -8.46583716e-01 -7.05377976e-02
+ -1.35984639e-01 -8.70844796e-01]</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -8.70916732e-01 -4.92052663e-01 -7.87693670e-02
+ -3.96983106e+01 -2.63022059e+01  7.01496831e-02  0.00000000e+00
+ -1.42246120e+00 -5.27278778e-01 -2.53543656e+00 -3.14979653e-03
+ -8.73267820e-02 -9.91314840e-01]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[1.06607917 1.16293684]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[ 1.06000007e+00  1.04500000e+00  1.39969888e-01  1.17818452e-01
+  1.01000000e+00  1.88547845e+00 -1.62010332e-01 -9.41636871e-01
+ -1.81475210e-01 -4.22944571e-01 -1.51231025e+00  1.88438170e-03
+ -6.69733649e-03  1.33816088e-01]</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[-2.70872338e-06  1.56309508e+03  5.16627324e+03 -1.47036503e+03
+  4.58651360e+03  2.09070469e+04  4.83880466e+04  4.83880466e+04
+  3.81418717e+04  4.22431408e+04  7.63527804e+04  8.74451799e+04
+  2.33984342e+04  5.33888585e+04]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.62749884e+01 -6.18754782e+00  1.38427430e-02
+ -5.62595086e+00 -3.33775284e+01  7.78870119e-02 -9.09472497e-11
+ -4.39834071e-01 -2.13837108e-02  5.77212247e-01 -6.45621077e-02
+ -1.28993967e-01 -2.87340223e-01]</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  0.00000000e+00 -5.26203929e+00 -6.47878410e-01
+ -3.93295903e+01 -7.21671824e+01 -1.06227485e+00  0.00000000e+00
+ -7.58391372e-01 -7.48661894e-01  1.89966828e+00  2.21611375e-02
+ -6.11184013e-02 -2.94646148e-01]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[1.06474225 1.39604489]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[ 1.06000008 -1.37967805  0.35307923  0.49336167  1.01        0.42302967
+ -0.39244029 -1.06769622 -0.03760341 -0.03215925 -0.74702955  0.01078549
+  0.0065357  -0.48176674]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[-3.29378282e-06  1.94920593e+03  5.32294048e+03 -1.37340153e+02
+  5.78824181e+03  2.25836641e+04  5.06197088e+04  5.06197088e+04
+  4.00307054e+04  4.40009206e+04  7.80363802e+04  8.91840741e+04
+  2.50848345e+04  5.48079972e+04]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.58395673e+01 -9.39372550e-01 -2.45845587e+00
+  7.07643617e-01 -3.83572503e+01 -6.12760602e-02 -2.33344455e-11
+ -1.71952423e-01 -4.67960594e+00 -1.03799328e+01 -4.85487452e-02
+ -2.08159000e-01 -1.12997810e-01]</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -4.25310997e+01  6.61378201e-01  6.97993796e-01
+ -4.69963284e+01 -7.74153415e+01  1.86721966e-01  0.00000000e+00
+ -1.99386764e+00 -1.94771961e+00 -3.28446035e+01 -1.54863050e-02
+ -1.05753223e-01 -1.29292086e-01]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[1.06811562 1.16201033]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[-2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[ 1.06000008 -1.10769746  2.81063179  0.11446631  1.01       -0.19504652
+ -0.29620409 -1.00874393 -0.1466836  -0.02235527 -0.4588814   0.04524289
+  0.04271802 -0.27465145]</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[-3.24066685e-06  1.96544854e+03  5.47832621e+03 -1.42168255e+02
+  5.81724751e+03  2.20386648e+04  5.06622464e+04  5.06622464e+04
+  4.03371727e+04  4.33949130e+04  7.74966267e+04  8.84668596e+04
+  2.46147557e+04  5.48532763e+04]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  2.22698440e+00  1.38957788e-01  3.53396707e-01
+ -2.31427615e+01 -1.00400388e+00 -1.17819456e-01  9.97877336e-11
+ -2.01824915e-01 -1.65306697e-01 -2.50887645e+00 -5.44952232e-02
+ -1.15355554e-01 -7.34661083e-01]</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -3.80092693e+01  9.34533538e-01 -2.35018498e+01
+ -3.45113227e+01 -4.83287227e+00 -1.69245084e+00  0.00000000e+00
+ -2.28447726e-01 -1.50004687e-01 -6.27183425e+00 -1.88368230e-03
+ -3.98658367e-02 -1.22216928e+00]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[1.05921451 1.39244029]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[ 1.06000008 -2.0416827   1.01       -0.01929135  1.01       -0.07249113
+ -0.26195719 -0.98867382 -0.00734666  0.05308419 -0.21477428  0.06887146
+  0.03598598 -0.10854064]</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[-3.02320341e-06  2.09030602e+03  5.51447583e+03 -2.16128085e+02
+  5.66535270e+03  2.19275790e+04  5.07178508e+04  5.07178508e+04
+  4.04655235e+04  4.33755603e+04  7.73620173e+04  8.82113645e+04
+  2.46685203e+04  5.49858852e+04]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  1.88462072e+01 -4.00698375e+01 -3.47950589e+00
+ -1.81353835e+01  1.15714365e-01  4.74180508e-01  2.14053220e-11
+ -6.83867236e-01 -1.54492175e-01 -7.47370406e-01 -6.63393039e-02
+ -1.32106717e-01 -4.91047351e-01]</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.53952210e+01  0.00000000e+00 -4.03716228e+00
+ -3.06374069e+01 -7.87613058e-01 -3.03788285e-01  0.00000000e+00
+ -9.61354742e-01 -8.62553566e-02 -1.43030316e+00  3.19977588e-03
+ -1.61249295e-01 -4.82100213e-01]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[1.02475711 1.29620409]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>[2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 0.8   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[ 1.06000008 -0.67359465  1.01       -0.00945334  1.01       -0.07005301
+ -0.15947715 -0.92960894 -0.20922542 -0.41284396  0.07784402 -2.62769056
+  4.6062255   0.63143956]</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[-3.27723764e-06  2.16217881e+03  5.56487317e+03 -6.52882868e+01
+  5.74516542e+03  2.09747533e+04  4.95046981e+04  4.95046981e+04
+  3.71014769e+04  4.30885263e+04  7.65278493e+04  8.01091833e+04
+  2.86067965e+03  2.40096039e+04]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -7.00175510e+01 -2.59058674e+00 -6.97429980e-01
+ -1.29983596e+01  1.98916570e-01 -4.92755000e-03  2.67519340e-12
+ -2.94790041e-01 -1.15454570e-01 -1.29859396e-01 -8.04566550e-02
+ -1.64267121e-01 -1.73977701e-01]</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.28789278e+02  0.00000000e+00  2.38846670e-02
+ -4.76845718e+01 -2.83996514e-02  8.68885556e-02  0.00000000e+00
+ -1.89313280e-01 -5.01891676e-02 -3.19469142e-01 -6.43456179e-02
+ -5.74068163e-02 -1.19510672e-01]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[1.00112854 1.26195719]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[ 1.06000008 -0.26165818  0.45098327  0.03553676  1.01       -0.01532015
+ -0.27608778 -0.99338471 -0.03744353 -0.23629188  0.01524811 -1.31079541
+  2.30608807  0.35268739]</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[-3.31810962e-06  2.10139086e+03  5.48600990e+03 -3.10687311e+02
+  5.48745922e+03  2.07599205e+04  4.92335585e+04  4.92335585e+04
+  3.68102522e+04  4.28212677e+04  7.62641564e+04  7.98979914e+04
+  2.64926013e+03  2.38056772e+04]</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -7.61889540e+00 -2.44576846e+00 -5.99147958e-01
+ -9.85751792e+00  2.82680201e+00 -8.06311893e-02  6.69797551e-13
+ -9.05688674e-01 -6.03577841e-01 -1.71597004e-01 -1.49209817e+01
+ -1.11522088e+02  5.32739794e+00]</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.47476825e+01 -6.88796969e+00 -2.85715930e-02
+ -3.34566491e+01 -2.58031019e-01  5.15151550e-02  0.00000000e+00
+ -1.74716935e+00 -3.57858166e+00 -1.38451732e-01  1.07047586e+00
+ -2.11967450e+02 -5.20638499e+00]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[3.69769056 1.15947715]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[ 1.06000008  0.51422197 -0.12377169  0.035779    1.01        0.00390127
+ -0.37349069 -1.04994612 -0.01482017 -0.14464444 -0.02131437 -0.65189123
+  1.1531444   0.19153834]</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[-3.34383281e-06  2.14709182e+03  5.27564349e+03 -7.55697429e+02
+  5.05355672e+03  1.99363163e+04  4.81194290e+04  4.81194290e+04
+  3.59159117e+04  4.20907863e+04  7.55659340e+04  7.90734698e+04
+  1.82462740e+03  2.29865980e+04]</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -5.45596386e+00 -1.16386873e+00  3.36216658e-01
+ -1.34868963e+01  2.08266692e-01 -2.80523646e-02 -8.85069795e-13
+ -3.89541744e-01 -3.33226628e-01 -5.02050270e-02 -3.70169150e+00
+ -2.79595122e+01  1.46535432e+00]</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -7.64014636e-01 -1.32106324e+00  5.25952047e-01
+ -3.14225887e+01  1.40627947e-01  7.41481998e-03  0.00000000e+00
+ -3.34337906e-01 -9.61792900e-01 -2.93645729e-02  2.65121280e-01
+ -5.31395086e+01 -1.43855095e+00]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[2.38079541 1.27608778]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[ 1.06000009  0.86962646  0.60649996  0.10190735  1.01        0.02179551
+  0.22784134 -0.68423385  0.00142309 -0.09165274 -0.10299765 -0.3428597
+  0.59226158  0.16064498]</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[-3.35861417e-06  2.15856769e+03  5.51572786e+03 -6.00799533e+02
+  4.98622413e+03  2.25377929e+04  5.18077153e+04  5.18077153e+04
+  3.92806880e+04  4.51131032e+04  7.84990513e+04  8.21661300e+04
+  4.91846893e+03  2.61046633e+04]</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  4.47477728e+00 -1.26931344e+00  4.13773344e-01
+ -1.06610995e+01 -1.61033885e-01 -3.51612670e-02  5.06039655e-13
+ -3.11700017e-01 -2.19721563e-01 -2.97130525e-02 -9.36406417e-01
+ -7.04959114e+00  3.10233519e-01]</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  2.03286095e+00  2.46318769e-01  3.70143820e-01
+ -2.62519657e+01  1.65658793e-01 -4.66177416e-01  0.00000000e+00
+ -1.30877855e-01 -3.33341230e-01 -8.46226040e-03  5.99548879e-02
+ -1.33370590e+01 -3.95130982e-01]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[1.72189123 1.37349069]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>[6.66133815e-16]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[ 1.06000008  0.58118202  0.13760982  0.01209897  1.01        0.01756501
+  0.09567045 -0.74088691 -0.10042009  0.05340046  0.15051999 -0.19192731
+  0.33086692  0.27042243]</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[-3.41320398e-06  2.13922679e+03  5.54729859e+03 -6.45428275e+02
+  4.93271714e+03  2.21870275e+04  5.19190248e+04  5.19190248e+04
+  3.63383563e+04  4.40317559e+04  7.70595829e+04  8.16894022e+04
+  4.44531108e+03  2.57091227e+04]</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.47317310e+00 -4.46579304e+00 -1.97474875e+00
+ -1.50523780e+00  4.93926841e-02  5.70149009e-02 -4.02344824e-13
+ -2.98863804e-01 -1.80157516e-01 -2.83789007e-02 -3.07754928e-01
+ -1.93823583e+00  2.58696555e-02]</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -6.64388017e+00 -3.71645955e+00 -2.36266218e+00
+ -3.33059082e+01  2.35706195e-01 -1.99873779e+00  0.00000000e+00
+ -1.65806938e-01 -1.68176686e-01 -1.21495596e-01  9.89413557e-03
+ -3.32506481e+00 -1.45516224e-01]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[1.4128597  0.77215866]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>[2.22044605e-16]</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[ 1.06000009  0.68086271 -0.01448199 -0.0086006   1.01        0.2254929
+ -0.03903719 -0.80415579  0.127726    0.17407086  0.18666092  0.0159751
+  0.07435552  0.0611966 ]</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[-3.41632582e-06  2.13832738e+03  5.68560455e+03 -4.54354337e+02
+  4.99257637e+03  2.18127185e+04  5.05708877e+04  5.05708877e+04
+  3.52648097e+04  4.27384793e+04  7.64511806e+04  8.08924348e+04
+  3.60325668e+03  2.47808661e+04]</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  2.23979828e-01 -1.17603617e+00 -5.79757911e-01
+ -2.84694702e+00 -1.35940013e-01  8.53816129e-02 -9.15933995e-14
+ -4.37810358e-01 -8.76652984e-02 -9.66919687e-02 -1.11417860e-01
+ -4.60767296e-01 -2.75466482e-01]</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.37854751e+00 -3.25754253e-01 -2.19226407e-01
+ -3.78296784e+01  2.18276531e-01 -5.59509032e-01  0.00000000e+00
+ -2.51752382e-01 -6.33605276e-02 -2.34183773e-01 -2.36067483e-02
+ -1.03642262e+00 -1.35243559e-01]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[1.26192731 0.90432955]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[ 1.06000008  0.50048855  0.21875565  0.01652133  1.01        0.9419662
+ -0.02341302 -0.79614937 -0.01658104  0.28806068 -2.23755619 -0.11597702
+ -0.18386984  2.94862186]</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[-3.47798856e-06  2.11826758e+03  6.39553519e+03 -5.35557637e+02
+  4.89057170e+03  2.30108437e+04  4.78138155e+04  4.78138155e+04
+  3.25174159e+04  3.94838917e+04  7.42536542e+04  8.16297346e+04
+  5.12666094e+03  2.58046422e+04]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  2.74842505e+00 -9.86934218e-01 -6.91019610e-01
+ -3.79470873e+00  1.53674984e-01 -3.16301894e-03  6.08402217e-14
+ -6.07936443e-01 -1.80525947e-01  9.06740978e-02 -6.36574020e-02
+ -2.78234609e-01 -1.22414604e-01]</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -1.08645295e+00  1.88965508e-01 -4.79527177e-02
+ -2.97476685e+01 -8.48262110e-01  1.93353649e-01  0.00000000e+00
+ -3.88258513e-01 -6.15393711e-01 -5.05396493e-01 -8.78669374e-03
+ -1.69246251e-01 -6.03928129e-02]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[1.0540249  1.03903719]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[ 1.06000009  1.0975052   0.38231252  0.00358168  1.01       -0.38837999
+  0.0064833  -0.78097814 -0.00502991  0.37209286 -0.68166157 -0.10697929
+ -0.30848533  1.52554345]</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[-3.57579161e-06  2.13711452e+03  6.41533875e+03 -3.10745599e+02
+  5.15725233e+03  2.36576795e+04  4.84330194e+04  4.84330194e+04
+  3.30391013e+04  4.00463991e+04  7.47965299e+04  8.22532931e+04
+  5.74137226e+03  2.64334866e+04]</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00  2.10040750e+00 -6.63265256e-01 -1.82080578e-01
+ -3.57523616e+00 -1.41814388e+01  1.56263772e-03  1.22124533e-14
+ -4.01242980e-01  1.94220301e+00 -1.01111843e+01 -5.49754031e-01
+  8.68234234e-01 -2.12132240e+01]</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[ 0.00000000e+00 -2.46167056e+00  4.70187651e-02  2.55002684e-01
+ -4.17068082e+01 -8.03837389e+00  9.22096980e-02  0.00000000e+00
+  1.31023402e-02  5.92752643e-01 -3.82817451e+01 -1.61483033e-01
+  9.07983227e-01 -4.55462495e+01]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[1.18597702 1.02341302]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>[0.]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>[1.    1.    1.    1.    1.    1.    1.    0.978 0.969 1.2   1.    1.
+ 1.    1.    1.    1.    1.    1.    1.    1.   ]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[-0.163  0.5    0.4    0.     0.     0.24   0.    -0.06   0.     0.
+  0.     0.     0.     0.   ]</t>
         </is>
       </c>
     </row>
